--- a/ОПЖ-readyForLR.xlsx
+++ b/ОПЖ-readyForLR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\MSU\Course 4\Моделирование и прогнозирование социально-экономических явлений\LE_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCF00C1-B488-4F59-97A3-BC33C3C2CC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63509EC-001A-4D92-A5D8-348431E0242C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="801" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="801" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -779,12 +779,20 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0&quot;р.&quot;_-;\-* #,##0&quot;р.&quot;_-;_-* &quot;-&quot;&quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1441,138 +1449,137 @@
   </borders>
   <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" applyFont="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFont="0">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" applyFont="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" applyFont="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyProtection="0"/>
@@ -1580,135 +1587,136 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1717,31 +1725,33 @@
     <xf numFmtId="11" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="7" xfId="113" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="38" fillId="7" borderId="7" xfId="113" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="38" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="39" fillId="7" borderId="7" xfId="113" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="39" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="114">
     <cellStyle name="Comma" xfId="95" xr:uid="{BB0EF978-059D-487B-89D1-DDB1B42472C7}"/>
@@ -36664,7 +36674,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36790,7 +36800,7 @@
       <c r="D6" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="80" t="s">
         <v>203</v>
       </c>
       <c r="F6" s="62">
@@ -36826,8 +36836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8094C938-9C96-4D8E-9923-315748C37E89}">
   <dimension ref="A1:AC177"/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36964,7 +36974,7 @@
         <v>85</v>
       </c>
       <c r="M6">
-        <f>(B6-$K6)^2</f>
+        <f t="shared" ref="M6:M37" si="4">(B6-$K6)^2</f>
         <v>4624</v>
       </c>
       <c r="N6">
@@ -37061,15 +37071,15 @@
         <v>-0.92972670498097898</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J70" si="4">ABS(I7)</f>
+        <f t="shared" ref="J7:J70" si="5">ABS(I7)</f>
         <v>0.92972670498097898</v>
       </c>
       <c r="K7" s="68">
-        <f t="shared" ref="K7:K70" si="5">_xlfn.RANK.AVG(J7,J$6:J$90,1)</f>
+        <f t="shared" ref="K7:K70" si="6">_xlfn.RANK.AVG(J7,J$6:J$90,1)</f>
         <v>44</v>
       </c>
       <c r="M7">
-        <f>(B7-$K7)^2</f>
+        <f t="shared" si="4"/>
         <v>196</v>
       </c>
       <c r="N7">
@@ -37118,15 +37128,15 @@
         <v>-8.7882068751355291E-2</v>
       </c>
       <c r="J8">
+        <f t="shared" si="5"/>
+        <v>8.7882068751355291E-2</v>
+      </c>
+      <c r="K8" s="68">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="4"/>
-        <v>8.7882068751355291E-2</v>
-      </c>
-      <c r="K8" s="68">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <f>(B8-$K8)^2</f>
         <v>3600</v>
       </c>
       <c r="N8">
@@ -37172,15 +37182,15 @@
         <v>-1.0659597338611491</v>
       </c>
       <c r="J9">
+        <f t="shared" si="5"/>
+        <v>1.0659597338611491</v>
+      </c>
+      <c r="K9" s="68">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="4"/>
-        <v>1.0659597338611491</v>
-      </c>
-      <c r="K9" s="68">
-        <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
-      <c r="M9">
-        <f>(B9-$K9)^2</f>
         <v>484</v>
       </c>
       <c r="N9">
@@ -37226,15 +37236,15 @@
         <v>-0.68896222465826895</v>
       </c>
       <c r="J10">
+        <f t="shared" si="5"/>
+        <v>0.68896222465826895</v>
+      </c>
+      <c r="K10" s="68">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="4"/>
-        <v>0.68896222465826895</v>
-      </c>
-      <c r="K10" s="68">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="M10">
-        <f>(B10-$K10)^2</f>
         <v>625</v>
       </c>
       <c r="N10">
@@ -37280,15 +37290,15 @@
         <v>0.44195504366555838</v>
       </c>
       <c r="J11">
+        <f t="shared" si="5"/>
+        <v>0.44195504366555838</v>
+      </c>
+      <c r="K11" s="68">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="4"/>
-        <v>0.44195504366555838</v>
-      </c>
-      <c r="K11" s="68">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="M11">
-        <f>(B11-$K11)^2</f>
         <v>1600</v>
       </c>
       <c r="N11">
@@ -37334,15 +37344,15 @@
         <v>0.41695632497150825</v>
       </c>
       <c r="J12">
+        <f t="shared" si="5"/>
+        <v>0.41695632497150825</v>
+      </c>
+      <c r="K12" s="68">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="4"/>
-        <v>0.41695632497150825</v>
-      </c>
-      <c r="K12" s="68">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="M12">
-        <f>(B12-$K12)^2</f>
         <v>144</v>
       </c>
       <c r="N12">
@@ -37388,15 +37398,15 @@
         <v>-1.1333742436192722</v>
       </c>
       <c r="J13">
+        <f t="shared" si="5"/>
+        <v>1.1333742436192722</v>
+      </c>
+      <c r="K13" s="68">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="4"/>
-        <v>1.1333742436192722</v>
-      </c>
-      <c r="K13" s="68">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="M13">
-        <f>(B13-$K13)^2</f>
         <v>196</v>
       </c>
       <c r="N13">
@@ -37442,15 +37452,15 @@
         <v>-1.2014812443671019</v>
       </c>
       <c r="J14">
+        <f t="shared" si="5"/>
+        <v>1.2014812443671019</v>
+      </c>
+      <c r="K14" s="68">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="4"/>
-        <v>1.2014812443671019</v>
-      </c>
-      <c r="K14" s="68">
-        <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="M14">
-        <f>(B14-$K14)^2</f>
         <v>324</v>
       </c>
       <c r="N14">
@@ -37496,15 +37506,15 @@
         <v>0.18721400707880775</v>
       </c>
       <c r="J15">
+        <f t="shared" si="5"/>
+        <v>0.18721400707880775</v>
+      </c>
+      <c r="K15" s="68">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="4"/>
-        <v>0.18721400707880775</v>
-      </c>
-      <c r="K15" s="68">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="M15">
-        <f>(B15-$K15)^2</f>
         <v>4900</v>
       </c>
       <c r="N15">
@@ -37550,15 +37560,15 @@
         <v>-1.2055280604398746</v>
       </c>
       <c r="J16">
+        <f t="shared" si="5"/>
+        <v>1.2055280604398746</v>
+      </c>
+      <c r="K16" s="68">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="4"/>
-        <v>1.2055280604398746</v>
-      </c>
-      <c r="K16" s="68">
-        <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
-      <c r="M16">
-        <f>(B16-$K16)^2</f>
         <v>64</v>
       </c>
       <c r="N16">
@@ -37604,15 +37614,15 @@
         <v>0.61465211413255361</v>
       </c>
       <c r="J17">
+        <f t="shared" si="5"/>
+        <v>0.61465211413255361</v>
+      </c>
+      <c r="K17" s="68">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="4"/>
-        <v>0.61465211413255361</v>
-      </c>
-      <c r="K17" s="68">
-        <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="M17">
-        <f>(B17-$K17)^2</f>
         <v>324</v>
       </c>
       <c r="N17">
@@ -37658,15 +37668,15 @@
         <v>0.59890068370749816</v>
       </c>
       <c r="J18">
+        <f t="shared" si="5"/>
+        <v>0.59890068370749816</v>
+      </c>
+      <c r="K18" s="68">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="4"/>
-        <v>0.59890068370749816</v>
-      </c>
-      <c r="K18" s="68">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="M18">
-        <f>(B18-$K18)^2</f>
         <v>784</v>
       </c>
       <c r="N18">
@@ -37712,15 +37722,15 @@
         <v>-0.53583216914431375</v>
       </c>
       <c r="J19">
+        <f t="shared" si="5"/>
+        <v>0.53583216914431375</v>
+      </c>
+      <c r="K19" s="68">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="4"/>
-        <v>0.53583216914431375</v>
-      </c>
-      <c r="K19" s="68">
-        <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="M19">
-        <f>(B19-$K19)^2</f>
         <v>576</v>
       </c>
       <c r="N19">
@@ -37766,15 +37776,15 @@
         <v>-9.7613272286693586E-2</v>
       </c>
       <c r="J20">
+        <f t="shared" si="5"/>
+        <v>9.7613272286693586E-2</v>
+      </c>
+      <c r="K20" s="68">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="4"/>
-        <v>9.7613272286693586E-2</v>
-      </c>
-      <c r="K20" s="68">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="M20">
-        <f>(B20-$K20)^2</f>
         <v>1521</v>
       </c>
       <c r="N20">
@@ -37820,15 +37830,15 @@
         <v>-0.80539702133751234</v>
       </c>
       <c r="J21">
+        <f t="shared" si="5"/>
+        <v>0.80539702133751234</v>
+      </c>
+      <c r="K21" s="68">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="4"/>
-        <v>0.80539702133751234</v>
-      </c>
-      <c r="K21" s="68">
-        <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
-      <c r="M21">
-        <f>(B21-$K21)^2</f>
         <v>841</v>
       </c>
       <c r="N21">
@@ -37874,15 +37884,15 @@
         <v>0.37494685720579923</v>
       </c>
       <c r="J22">
+        <f t="shared" si="5"/>
+        <v>0.37494685720579923</v>
+      </c>
+      <c r="K22" s="68">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="4"/>
-        <v>0.37494685720579923</v>
-      </c>
-      <c r="K22" s="68">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="M22">
-        <f>(B22-$K22)^2</f>
         <v>1024</v>
       </c>
       <c r="N22">
@@ -37928,15 +37938,15 @@
         <v>1.44782324988347</v>
       </c>
       <c r="J23">
+        <f t="shared" si="5"/>
+        <v>1.44782324988347</v>
+      </c>
+      <c r="K23" s="68">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="4"/>
-        <v>1.44782324988347</v>
-      </c>
-      <c r="K23" s="68">
-        <f t="shared" si="5"/>
-        <v>64</v>
-      </c>
-      <c r="M23">
-        <f>(B23-$K23)^2</f>
         <v>400</v>
       </c>
       <c r="N23">
@@ -37982,15 +37992,15 @@
         <v>0.30643415673621632</v>
       </c>
       <c r="J24">
+        <f t="shared" si="5"/>
+        <v>0.30643415673621632</v>
+      </c>
+      <c r="K24" s="68">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="4"/>
-        <v>0.30643415673621632</v>
-      </c>
-      <c r="K24" s="68">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="M24">
-        <f>(B24-$K24)^2</f>
         <v>25</v>
       </c>
       <c r="N24">
@@ -38036,15 +38046,15 @@
         <v>1.0541365537173277</v>
       </c>
       <c r="J25">
+        <f t="shared" si="5"/>
+        <v>1.0541365537173277</v>
+      </c>
+      <c r="K25" s="68">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="4"/>
-        <v>1.0541365537173277</v>
-      </c>
-      <c r="K25" s="68">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="M25">
-        <f>(B25-$K25)^2</f>
         <v>1225</v>
       </c>
       <c r="N25">
@@ -38090,15 +38100,15 @@
         <v>1.5715105366464144</v>
       </c>
       <c r="J26">
+        <f t="shared" si="5"/>
+        <v>1.5715105366464144</v>
+      </c>
+      <c r="K26" s="68">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="4"/>
-        <v>1.5715105366464144</v>
-      </c>
-      <c r="K26" s="68">
-        <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="M26">
-        <f>(B26-$K26)^2</f>
         <v>3136</v>
       </c>
       <c r="N26">
@@ -38144,15 +38154,15 @@
         <v>1.1576721271463981</v>
       </c>
       <c r="J27">
+        <f t="shared" si="5"/>
+        <v>1.1576721271463981</v>
+      </c>
+      <c r="K27" s="68">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="4"/>
-        <v>1.1576721271463981</v>
-      </c>
-      <c r="K27" s="68">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-      <c r="M27">
-        <f>(B27-$K27)^2</f>
         <v>529</v>
       </c>
       <c r="N27">
@@ -38198,15 +38208,15 @@
         <v>-1.2849404262000235</v>
       </c>
       <c r="J28">
+        <f t="shared" si="5"/>
+        <v>1.2849404262000235</v>
+      </c>
+      <c r="K28" s="68">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="4"/>
-        <v>1.2849404262000235</v>
-      </c>
-      <c r="K28" s="68">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="M28">
-        <f>(B28-$K28)^2</f>
         <v>196</v>
       </c>
       <c r="N28">
@@ -38252,15 +38262,15 @@
         <v>1.6104357271529182</v>
       </c>
       <c r="J29">
+        <f t="shared" si="5"/>
+        <v>1.6104357271529182</v>
+      </c>
+      <c r="K29" s="68">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="4"/>
-        <v>1.6104357271529182</v>
-      </c>
-      <c r="K29" s="68">
-        <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="M29">
-        <f>(B29-$K29)^2</f>
         <v>676</v>
       </c>
       <c r="N29">
@@ -38306,15 +38316,15 @@
         <v>-0.81021863595859145</v>
       </c>
       <c r="J30">
+        <f t="shared" si="5"/>
+        <v>0.81021863595859145</v>
+      </c>
+      <c r="K30" s="68">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="4"/>
-        <v>0.81021863595859145</v>
-      </c>
-      <c r="K30" s="68">
-        <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-      <c r="M30">
-        <f>(B30-$K30)^2</f>
         <v>676</v>
       </c>
       <c r="N30">
@@ -38360,15 +38370,15 @@
         <v>5.4258860509804663E-2</v>
       </c>
       <c r="J31">
+        <f t="shared" si="5"/>
+        <v>5.4258860509804663E-2</v>
+      </c>
+      <c r="K31" s="68">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="4"/>
-        <v>5.4258860509804663E-2</v>
-      </c>
-      <c r="K31" s="68">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M31">
-        <f>(B31-$K31)^2</f>
         <v>1369</v>
       </c>
       <c r="N31">
@@ -38414,15 +38424,15 @@
         <v>-0.14536175376892402</v>
       </c>
       <c r="J32">
+        <f t="shared" si="5"/>
+        <v>0.14536175376892402</v>
+      </c>
+      <c r="K32" s="68">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="4"/>
-        <v>0.14536175376892402</v>
-      </c>
-      <c r="K32" s="68">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="M32">
-        <f>(B32-$K32)^2</f>
         <v>2116</v>
       </c>
       <c r="N32">
@@ -38468,15 +38478,15 @@
         <v>-0.64515777679469011</v>
       </c>
       <c r="J33">
+        <f t="shared" si="5"/>
+        <v>0.64515777679469011</v>
+      </c>
+      <c r="K33" s="68">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="4"/>
-        <v>0.64515777679469011</v>
-      </c>
-      <c r="K33" s="68">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="M33">
-        <f>(B33-$K33)^2</f>
         <v>2601</v>
       </c>
       <c r="N33">
@@ -38522,15 +38532,15 @@
         <v>0.51965753461344377</v>
       </c>
       <c r="J34">
+        <f t="shared" si="5"/>
+        <v>0.51965753461344377</v>
+      </c>
+      <c r="K34" s="68">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="4"/>
-        <v>0.51965753461344377</v>
-      </c>
-      <c r="K34" s="68">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="M34">
-        <f>(B34-$K34)^2</f>
         <v>2304</v>
       </c>
       <c r="N34">
@@ -38576,15 +38586,15 @@
         <v>3.2419306071781335</v>
       </c>
       <c r="J35">
+        <f t="shared" si="5"/>
+        <v>3.2419306071781335</v>
+      </c>
+      <c r="K35" s="68">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="M35">
         <f t="shared" si="4"/>
-        <v>3.2419306071781335</v>
-      </c>
-      <c r="K35" s="68">
-        <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-      <c r="M35">
-        <f>(B35-$K35)^2</f>
         <v>3481</v>
       </c>
       <c r="N35">
@@ -38630,15 +38640,15 @@
         <v>-1.4977539966544384</v>
       </c>
       <c r="J36">
+        <f t="shared" si="5"/>
+        <v>1.4977539966544384</v>
+      </c>
+      <c r="K36" s="68">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="4"/>
-        <v>1.4977539966544384</v>
-      </c>
-      <c r="K36" s="68">
-        <f t="shared" si="5"/>
-        <v>66</v>
-      </c>
-      <c r="M36">
-        <f>(B36-$K36)^2</f>
         <v>49</v>
       </c>
       <c r="N36">
@@ -38684,15 +38694,15 @@
         <v>0.37382389718388254</v>
       </c>
       <c r="J37">
+        <f t="shared" si="5"/>
+        <v>0.37382389718388254</v>
+      </c>
+      <c r="K37" s="68">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="4"/>
-        <v>0.37382389718388254</v>
-      </c>
-      <c r="K37" s="68">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="M37">
-        <f>(B37-$K37)^2</f>
         <v>2809</v>
       </c>
       <c r="N37">
@@ -38710,43 +38720,43 @@
         <v>84.762775510204079</v>
       </c>
       <c r="B38" s="68">
-        <f t="shared" ref="B38:B69" si="6">_xlfn.RANK.AVG(A38,A$6:A$90,1)</f>
+        <f t="shared" ref="B38:B69" si="7">_xlfn.RANK.AVG(A38,A$6:A$90,1)</f>
         <v>24</v>
       </c>
       <c r="C38" s="67">
         <v>5.0206</v>
       </c>
       <c r="D38" s="68">
-        <f t="shared" ref="D38:D69" si="7">_xlfn.RANK.AVG(C38,C$6:C$90,1)</f>
+        <f t="shared" ref="D38:D69" si="8">_xlfn.RANK.AVG(C38,C$6:C$90,1)</f>
         <v>14</v>
       </c>
       <c r="E38" s="67">
         <v>65.933738815088645</v>
       </c>
       <c r="F38" s="68">
-        <f t="shared" ref="F38:F69" si="8">_xlfn.RANK.AVG(E38,E$6:E$90,1)</f>
+        <f t="shared" ref="F38:F69" si="9">_xlfn.RANK.AVG(E38,E$6:E$90,1)</f>
         <v>38</v>
       </c>
       <c r="G38" s="67">
         <v>-4.9803084658979389</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H69" si="9">_xlfn.RANK.AVG(G38,G$6:G$90,1)</f>
+        <f t="shared" ref="H38:H69" si="10">_xlfn.RANK.AVG(G38,G$6:G$90,1)</f>
         <v>18</v>
       </c>
       <c r="I38" s="76">
         <v>-0.3028763353493531</v>
       </c>
       <c r="J38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3028763353493531</v>
       </c>
       <c r="K38" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="M38">
-        <f>(B38-$K38)^2</f>
+        <f t="shared" ref="M38:M69" si="11">(B38-$K38)^2</f>
         <v>100</v>
       </c>
       <c r="N38">
@@ -38764,43 +38774,43 @@
         <v>153.4330469441984</v>
       </c>
       <c r="B39" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="C39" s="67">
         <v>4.8651</v>
       </c>
       <c r="D39" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="E39" s="67">
         <v>75.382433711464017</v>
       </c>
       <c r="F39" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="G39" s="67">
         <v>-2.483544661281575</v>
       </c>
       <c r="H39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="I39" s="76">
         <v>0.34180308622511291</v>
       </c>
       <c r="J39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.34180308622511291</v>
       </c>
       <c r="K39" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="M39">
-        <f>(B39-$K39)^2</f>
+        <f t="shared" si="11"/>
         <v>361</v>
       </c>
       <c r="N39">
@@ -38818,43 +38828,43 @@
         <v>272.80635643564358</v>
       </c>
       <c r="B40" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="C40" s="67">
         <v>4.6951000000000001</v>
       </c>
       <c r="D40" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="E40" s="67">
         <v>73.738681171344382</v>
       </c>
       <c r="F40" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="G40" s="67">
         <v>-4.7467727908304759E-2</v>
       </c>
       <c r="H40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="I40" s="76">
         <v>-0.50579417269520377</v>
       </c>
       <c r="J40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.50579417269520377</v>
       </c>
       <c r="K40" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="M40">
-        <f>(B40-$K40)^2</f>
+        <f t="shared" si="11"/>
         <v>441</v>
       </c>
       <c r="N40">
@@ -38872,43 +38882,43 @@
         <v>1213.4877777777776</v>
       </c>
       <c r="B41" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="C41" s="67">
         <v>6.4150999999999998</v>
       </c>
       <c r="D41" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="E41" s="67">
         <v>65.07584274576341</v>
       </c>
       <c r="F41" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="G41" s="67">
         <v>23.907118797629746</v>
       </c>
       <c r="H41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="I41" s="76">
         <v>-1.9413166291493411</v>
       </c>
       <c r="J41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9413166291493411</v>
       </c>
       <c r="K41" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="M41">
-        <f>(B41-$K41)^2</f>
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
       <c r="N41">
@@ -38926,43 +38936,43 @@
         <v>477.45119284294236</v>
       </c>
       <c r="B42" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="C42" s="67">
         <v>0.97560000000000002</v>
       </c>
       <c r="D42" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E42" s="67">
         <v>49.072282357667291</v>
       </c>
       <c r="F42" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="G42" s="67">
         <v>-1.0678081723253492</v>
       </c>
       <c r="H42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="I42" s="76">
         <v>5.2128745218894039</v>
       </c>
       <c r="J42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.2128745218894039</v>
       </c>
       <c r="K42" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
       <c r="M42">
-        <f>(B42-$K42)^2</f>
+        <f t="shared" si="11"/>
         <v>196</v>
       </c>
       <c r="N42">
@@ -38980,43 +38990,43 @@
         <v>1024.4654838709678</v>
       </c>
       <c r="B43" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="C43" s="67">
         <v>0.24929999999999999</v>
       </c>
       <c r="D43" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E43" s="67">
         <v>90.070528028440577</v>
       </c>
       <c r="F43" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>81</v>
       </c>
       <c r="G43" s="67">
         <v>3.1370033404000655</v>
       </c>
       <c r="H43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="I43" s="76">
         <v>0.18360040385445586</v>
       </c>
       <c r="J43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18360040385445586</v>
       </c>
       <c r="K43" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="M43">
-        <f>(B43-$K43)^2</f>
+        <f t="shared" si="11"/>
         <v>5184</v>
       </c>
       <c r="N43">
@@ -39034,43 +39044,43 @@
         <v>665.69767999999999</v>
       </c>
       <c r="B44" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="C44" s="67">
         <v>1.0358000000000001</v>
       </c>
       <c r="D44" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E44" s="67">
         <v>84.812252858672494</v>
       </c>
       <c r="F44" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
       <c r="G44" s="67">
         <v>-3.5971063916367552</v>
       </c>
       <c r="H44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="I44" s="76">
         <v>0.92336239408467691</v>
       </c>
       <c r="J44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.92336239408467691</v>
       </c>
       <c r="K44" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="M44">
-        <f>(B44-$K44)^2</f>
+        <f t="shared" si="11"/>
         <v>1225</v>
       </c>
       <c r="N44">
@@ -39088,43 +39098,43 @@
         <v>363.29251748251744</v>
       </c>
       <c r="B45" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="C45" s="67">
         <v>1.4901</v>
       </c>
       <c r="D45" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="E45" s="67">
         <v>47.353776848675786</v>
       </c>
       <c r="F45" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G45" s="67">
         <v>-1.3621945188191755</v>
       </c>
       <c r="H45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="I45" s="76">
         <v>2.5984175734175636</v>
       </c>
       <c r="J45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5984175734175636</v>
       </c>
       <c r="K45" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="M45">
-        <f>(B45-$K45)^2</f>
+        <f t="shared" si="11"/>
         <v>256</v>
       </c>
       <c r="N45">
@@ -39142,43 +39152,43 @@
         <v>716.86787500000003</v>
       </c>
       <c r="B46" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="C46" s="67">
         <v>1.2142999999999999</v>
       </c>
       <c r="D46" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E46" s="67">
         <v>97.85629691887452</v>
       </c>
       <c r="F46" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="G46" s="67">
         <v>-6.5130516360686501</v>
       </c>
       <c r="H46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="I46" s="76">
         <v>-0.34191049049496769</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.34191049049496769</v>
       </c>
       <c r="K46" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="M46">
-        <f>(B46-$K46)^2</f>
+        <f t="shared" si="11"/>
         <v>3721</v>
       </c>
       <c r="N46">
@@ -39196,43 +39206,43 @@
         <v>651.69845679012349</v>
       </c>
       <c r="B47" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="C47" s="67">
         <v>0.13869999999999999</v>
       </c>
       <c r="D47" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E47" s="67">
         <v>77.991048073010518</v>
       </c>
       <c r="F47" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="G47" s="67">
         <v>-3.7712852806973181</v>
       </c>
       <c r="H47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="I47" s="76">
         <v>-0.1396421428440533</v>
       </c>
       <c r="J47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1396421428440533</v>
       </c>
       <c r="K47" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="M47">
-        <f>(B47-$K47)^2</f>
+        <f t="shared" si="11"/>
         <v>4761</v>
       </c>
       <c r="N47">
@@ -39250,43 +39260,43 @@
         <v>280.73135951661629</v>
       </c>
       <c r="B48" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="C48" s="67">
         <v>3.5979999999999999</v>
       </c>
       <c r="D48" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="E48" s="67">
         <v>87.593798446666099</v>
       </c>
       <c r="F48" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
       <c r="G48" s="67">
         <v>-0.98468365573281924</v>
       </c>
       <c r="H48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="I48" s="76">
         <v>-0.48655102292160279</v>
       </c>
       <c r="J48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.48655102292160279</v>
       </c>
       <c r="K48" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="M48">
-        <f>(B48-$K48)^2</f>
+        <f t="shared" si="11"/>
         <v>625</v>
       </c>
       <c r="N48">
@@ -39304,43 +39314,43 @@
         <v>325.05113365990201</v>
       </c>
       <c r="B49" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="C49" s="67">
         <v>6.5187999999999997</v>
       </c>
       <c r="D49" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="E49" s="67">
         <v>71.501488764471304</v>
       </c>
       <c r="F49" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="G49" s="67">
         <v>-0.33580822857248999</v>
       </c>
       <c r="H49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="I49" s="76">
         <v>4.9177948293518625E-2</v>
       </c>
       <c r="J49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.9177948293518625E-2</v>
       </c>
       <c r="K49" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M49">
-        <f>(B49-$K49)^2</f>
+        <f t="shared" si="11"/>
         <v>2916</v>
       </c>
       <c r="N49">
@@ -39358,43 +39368,43 @@
         <v>226.06576923076926</v>
       </c>
       <c r="B50" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="C50" s="67">
         <v>7.0660999999999996</v>
       </c>
       <c r="D50" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="E50" s="67">
         <v>67.502326898951878</v>
       </c>
       <c r="F50" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="G50" s="67">
         <v>-1.6130677710242167</v>
       </c>
       <c r="H50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="I50" s="76">
         <v>-9.446897708798474E-3</v>
       </c>
       <c r="J50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.446897708798474E-3</v>
       </c>
       <c r="K50" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M50">
-        <f>(B50-$K50)^2</f>
+        <f t="shared" si="11"/>
         <v>1764</v>
       </c>
       <c r="N50">
@@ -39412,43 +39422,43 @@
         <v>304.96551724137925</v>
       </c>
       <c r="B51" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="C51" s="67">
         <v>5.6485000000000003</v>
       </c>
       <c r="D51" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="E51" s="67">
         <v>69.272012977926124</v>
       </c>
       <c r="F51" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="G51" s="67">
         <v>-4.5083435708435706</v>
       </c>
       <c r="H51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="I51" s="76">
         <v>1.0982419927013041</v>
       </c>
       <c r="J51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0982419927013041</v>
       </c>
       <c r="K51" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="M51">
-        <f>(B51-$K51)^2</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="N51">
@@ -39466,43 +39476,43 @@
         <v>475.97592920353981</v>
       </c>
       <c r="B52" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="C52" s="67">
         <v>7.0937999999999999</v>
       </c>
       <c r="D52" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="E52" s="67">
         <v>89.596331775337575</v>
       </c>
       <c r="F52" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="G52" s="67">
         <v>2.4206991653175285</v>
       </c>
       <c r="H52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="I52" s="76">
         <v>0.69564634769400868</v>
       </c>
       <c r="J52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.69564634769400868</v>
       </c>
       <c r="K52" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="M52">
-        <f>(B52-$K52)^2</f>
+        <f t="shared" si="11"/>
         <v>1156</v>
       </c>
       <c r="N52">
@@ -39520,43 +39530,43 @@
         <v>269.61752969121142</v>
       </c>
       <c r="B53" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="C53" s="67">
         <v>8.1798000000000002</v>
       </c>
       <c r="D53" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
       <c r="E53" s="67">
         <v>57.011298693142564</v>
       </c>
       <c r="F53" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="G53" s="67">
         <v>-0.84475197833459625</v>
       </c>
       <c r="H53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
       <c r="I53" s="76">
         <v>1.1946411508126715</v>
       </c>
       <c r="J53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1946411508126715</v>
       </c>
       <c r="K53" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="M53">
-        <f>(B53-$K53)^2</f>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
       <c r="N53">
@@ -39574,43 +39584,43 @@
         <v>471.69393442622948</v>
       </c>
       <c r="B54" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="C54" s="67">
         <v>6.8997000000000002</v>
       </c>
       <c r="D54" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="E54" s="67">
         <v>63.147478461806742</v>
       </c>
       <c r="F54" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="G54" s="67">
         <v>-4.2452623007868855</v>
       </c>
       <c r="H54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="I54" s="76">
         <v>0.89667759296365546</v>
       </c>
       <c r="J54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.89667759296365546</v>
       </c>
       <c r="K54" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="M54">
-        <f>(B54-$K54)^2</f>
+        <f t="shared" si="11"/>
         <v>784</v>
       </c>
       <c r="N54">
@@ -39628,43 +39638,43 @@
         <v>146.88845193508115</v>
       </c>
       <c r="B55" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="C55" s="67">
         <v>7.4885000000000002</v>
       </c>
       <c r="D55" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="E55" s="67">
         <v>68.263526893635415</v>
       </c>
       <c r="F55" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="G55" s="67">
         <v>-1.9895855650498249</v>
       </c>
       <c r="H55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
       <c r="I55" s="76">
         <v>-1.1818057862464428</v>
       </c>
       <c r="J55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1818057862464428</v>
       </c>
       <c r="K55" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="M55">
-        <f>(B55-$K55)^2</f>
+        <f t="shared" si="11"/>
         <v>361</v>
       </c>
       <c r="N55">
@@ -39682,43 +39692,43 @@
         <v>115.8189950166113</v>
       </c>
       <c r="B56" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="C56" s="67">
         <v>9.1447000000000003</v>
       </c>
       <c r="D56" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="E56" s="67">
         <v>51.356318355637036</v>
       </c>
       <c r="F56" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="G56" s="67">
         <v>-0.91369816285756056</v>
       </c>
       <c r="H56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="I56" s="76">
         <v>1.8394193000905972</v>
       </c>
       <c r="J56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8394193000905972</v>
       </c>
       <c r="K56" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="M56">
-        <f>(B56-$K56)^2</f>
+        <f t="shared" si="11"/>
         <v>1681</v>
       </c>
       <c r="N56">
@@ -39736,43 +39746,43 @@
         <v>314.59843342036555</v>
       </c>
       <c r="B57" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="C57" s="67">
         <v>7.5682999999999998</v>
       </c>
       <c r="D57" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="E57" s="67">
         <v>71.669993441949757</v>
       </c>
       <c r="F57" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="G57" s="67">
         <v>-1.0218989371865066</v>
       </c>
       <c r="H57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="I57" s="76">
         <v>-0.24510968202436345</v>
       </c>
       <c r="J57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24510968202436345</v>
       </c>
       <c r="K57" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="M57">
-        <f>(B57-$K57)^2</f>
+        <f t="shared" si="11"/>
         <v>1849</v>
       </c>
       <c r="N57">
@@ -39790,43 +39800,43 @@
         <v>164.58569118835894</v>
       </c>
       <c r="B58" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="C58" s="67">
         <v>5.9561000000000002</v>
       </c>
       <c r="D58" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="E58" s="67">
         <v>75.019857337036072</v>
       </c>
       <c r="F58" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="G58" s="67">
         <v>-2.7002108546213157</v>
       </c>
       <c r="H58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="I58" s="76">
         <v>-1.7378036559735932</v>
       </c>
       <c r="J58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7378036559735932</v>
       </c>
       <c r="K58" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="M58">
-        <f>(B58-$K58)^2</f>
+        <f t="shared" si="11"/>
         <v>1156</v>
       </c>
       <c r="N58">
@@ -39844,43 +39854,43 @@
         <v>279.02917050691246</v>
       </c>
       <c r="B59" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="C59" s="67">
         <v>6.1893000000000002</v>
       </c>
       <c r="D59" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="E59" s="67">
         <v>68.939044939330273</v>
       </c>
       <c r="F59" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="G59" s="67">
         <v>-2.6405456176061746</v>
       </c>
       <c r="H59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="I59" s="76">
         <v>-0.10639436191051743</v>
       </c>
       <c r="J59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10639436191051743</v>
       </c>
       <c r="K59" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M59">
-        <f>(B59-$K59)^2</f>
+        <f t="shared" si="11"/>
         <v>1764</v>
       </c>
       <c r="N59">
@@ -39898,43 +39908,43 @@
         <v>352.1128358208955</v>
       </c>
       <c r="B60" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
       <c r="C60" s="67">
         <v>6.6744000000000003</v>
       </c>
       <c r="D60" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="E60" s="67">
         <v>86.444589356976635</v>
       </c>
       <c r="F60" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="G60" s="67">
         <v>-0.57799559092701769</v>
       </c>
       <c r="H60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="I60" s="76">
         <v>-1.4130111094982141</v>
       </c>
       <c r="J60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4130111094982141</v>
       </c>
       <c r="K60" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="M60">
-        <f>(B60-$K60)^2</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="N60">
@@ -39952,43 +39962,43 @@
         <v>181.66631422924902</v>
       </c>
       <c r="B61" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="C61" s="67">
         <v>4.9151999999999996</v>
       </c>
       <c r="D61" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="E61" s="67">
         <v>56.151519175178827</v>
       </c>
       <c r="F61" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="G61" s="67">
         <v>-3.2488527411629398</v>
       </c>
       <c r="H61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="I61" s="76">
         <v>0.83056206075492867</v>
       </c>
       <c r="J61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.83056206075492867</v>
       </c>
       <c r="K61" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="M61">
-        <f>(B61-$K61)^2</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="N61">
@@ -40006,43 +40016,43 @@
         <v>262.61717741935485</v>
       </c>
       <c r="B62" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="C62" s="67">
         <v>5.6779999999999999</v>
       </c>
       <c r="D62" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="E62" s="67">
         <v>69.725185871696183</v>
       </c>
       <c r="F62" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="G62" s="67">
         <v>-1.4651817924728594</v>
       </c>
       <c r="H62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="I62" s="76">
         <v>-1.0702063652417877</v>
       </c>
       <c r="J62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0702063652417877</v>
       </c>
       <c r="K62" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="M62">
-        <f>(B62-$K62)^2</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="N62">
@@ -40060,43 +40070,43 @@
         <v>136.82457342657341</v>
       </c>
       <c r="B63" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="C63" s="67">
         <v>6.7354000000000003</v>
       </c>
       <c r="D63" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="E63" s="67">
         <v>47.952704182176483</v>
       </c>
       <c r="F63" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="G63" s="67">
         <v>-5.7760134242786778</v>
       </c>
       <c r="H63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="I63" s="76">
         <v>-0.89825348747999101</v>
       </c>
       <c r="J63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.89825348747999101</v>
       </c>
       <c r="K63" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="M63">
-        <f>(B63-$K63)^2</f>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
       <c r="N63">
@@ -40114,43 +40124,43 @@
         <v>129.78622554067971</v>
       </c>
       <c r="B64" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="C64" s="67">
         <v>8.5516000000000005</v>
       </c>
       <c r="D64" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="E64" s="67">
         <v>73.123878441495847</v>
       </c>
       <c r="F64" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="G64" s="67">
         <v>-1.2034174146297185</v>
       </c>
       <c r="H64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="I64" s="76">
         <v>-1.4689321348498652E-2</v>
       </c>
       <c r="J64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4689321348498652E-2</v>
       </c>
       <c r="K64" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="M64">
-        <f>(B64-$K64)^2</f>
+        <f t="shared" si="11"/>
         <v>900</v>
       </c>
       <c r="N64">
@@ -40168,43 +40178,43 @@
         <v>16.392664253517282</v>
       </c>
       <c r="B65" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="C65" s="72">
         <v>6.9829999999999997</v>
       </c>
       <c r="D65" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>48.5</v>
       </c>
       <c r="E65" s="67">
         <v>78.744177347316821</v>
       </c>
       <c r="F65" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="G65" s="67">
         <v>2.9101186384751698</v>
       </c>
       <c r="H65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
       <c r="I65" s="76">
         <v>2.0778803679481257</v>
       </c>
       <c r="J65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0778803679481257</v>
       </c>
       <c r="K65" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="M65">
-        <f>(B65-$K65)^2</f>
+        <f t="shared" si="11"/>
         <v>4489</v>
       </c>
       <c r="N65">
@@ -40222,43 +40232,43 @@
         <v>11.67981114435303</v>
       </c>
       <c r="B66" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C66" s="67">
         <v>6.9747000000000003</v>
       </c>
       <c r="D66" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="E66" s="67">
         <v>86.225932246655432</v>
       </c>
       <c r="F66" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="G66" s="67">
         <v>5.0683787664922164</v>
       </c>
       <c r="H66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="I66" s="76">
         <v>2.3710967078240515</v>
       </c>
       <c r="J66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3710967078240515</v>
       </c>
       <c r="K66" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
       <c r="M66">
-        <f>(B66-$K66)^2</f>
+        <f t="shared" si="11"/>
         <v>5041</v>
       </c>
       <c r="N66">
@@ -40276,43 +40286,43 @@
         <v>3.6762693357597818</v>
       </c>
       <c r="B67" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C67" s="67">
         <v>8.7394999999999996</v>
       </c>
       <c r="D67" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="E67" s="67">
         <v>92.430141320470852</v>
       </c>
       <c r="F67" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
       <c r="G67" s="67">
         <v>-5.3868602858908856</v>
       </c>
       <c r="H67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="I67" s="76">
         <v>3.0971859260315426</v>
       </c>
       <c r="J67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0971859260315426</v>
       </c>
       <c r="K67" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
       <c r="M67">
-        <f>(B67-$K67)^2</f>
+        <f t="shared" si="11"/>
         <v>5929</v>
       </c>
       <c r="N67">
@@ -40330,43 +40340,43 @@
         <v>93.239362898188631</v>
       </c>
       <c r="B68" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="C68" s="67">
         <v>6.9829999999999997</v>
       </c>
       <c r="D68" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>48.5</v>
       </c>
       <c r="E68" s="67">
         <v>69.771036489267431</v>
       </c>
       <c r="F68" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="G68" s="67">
         <v>3.2489492547445766</v>
       </c>
       <c r="H68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="I68" s="76">
         <v>1.4085138396648915</v>
       </c>
       <c r="J68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4085138396648915</v>
       </c>
       <c r="K68" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="M68">
-        <f>(B68-$K68)^2</f>
+        <f t="shared" si="11"/>
         <v>1369</v>
       </c>
       <c r="N68">
@@ -40384,43 +40394,43 @@
         <v>248.55819413092553</v>
       </c>
       <c r="B69" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="C69" s="67">
         <v>6.9054000000000002</v>
       </c>
       <c r="D69" s="68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="E69" s="67">
         <v>72.019269398516059</v>
       </c>
       <c r="F69" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="G69" s="67">
         <v>4.968499711827017E-3</v>
       </c>
       <c r="H69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="I69" s="76">
         <v>-0.44960223935895272</v>
       </c>
       <c r="J69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44960223935895272</v>
       </c>
       <c r="K69" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="M69">
-        <f>(B69-$K69)^2</f>
+        <f t="shared" si="11"/>
         <v>400</v>
       </c>
       <c r="N69">
@@ -40438,43 +40448,43 @@
         <v>49.907298170075343</v>
       </c>
       <c r="B70" s="68">
-        <f t="shared" ref="B70:B90" si="10">_xlfn.RANK.AVG(A70,A$6:A$90,1)</f>
+        <f t="shared" ref="B70:B90" si="12">_xlfn.RANK.AVG(A70,A$6:A$90,1)</f>
         <v>21</v>
       </c>
       <c r="C70" s="67">
         <v>6.8760000000000003</v>
       </c>
       <c r="D70" s="68">
-        <f t="shared" ref="D70:D90" si="11">_xlfn.RANK.AVG(C70,C$6:C$90,1)</f>
+        <f t="shared" ref="D70:D90" si="13">_xlfn.RANK.AVG(C70,C$6:C$90,1)</f>
         <v>43</v>
       </c>
       <c r="E70" s="67">
         <v>39.830611057528984</v>
       </c>
       <c r="F70" s="68">
-        <f t="shared" ref="F70:F90" si="12">_xlfn.RANK.AVG(E70,E$6:E$90,1)</f>
+        <f t="shared" ref="F70:F90" si="14">_xlfn.RANK.AVG(E70,E$6:E$90,1)</f>
         <v>2</v>
       </c>
       <c r="G70" s="67">
         <v>-1.7124587302189669</v>
       </c>
       <c r="H70">
-        <f t="shared" ref="H70:H90" si="13">_xlfn.RANK.AVG(G70,G$6:G$90,1)</f>
+        <f t="shared" ref="H70:H90" si="15">_xlfn.RANK.AVG(G70,G$6:G$90,1)</f>
         <v>44</v>
       </c>
       <c r="I70" s="76">
         <v>-1.1639127357286014</v>
       </c>
       <c r="J70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1639127357286014</v>
       </c>
       <c r="K70" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="M70">
-        <f>(B70-$K70)^2</f>
+        <f t="shared" ref="M70:M90" si="16">(B70-$K70)^2</f>
         <v>1024</v>
       </c>
       <c r="N70">
@@ -40492,43 +40502,43 @@
         <v>22.21161921708185</v>
       </c>
       <c r="B71" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="C71" s="67">
         <v>3.1408</v>
       </c>
       <c r="D71" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="E71" s="67">
         <v>33.540306777079195</v>
       </c>
       <c r="F71" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="G71" s="67">
         <v>-6.1263758323395319</v>
       </c>
       <c r="H71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="I71" s="76">
         <v>-4.1277906411062304</v>
       </c>
       <c r="J71">
-        <f t="shared" ref="J71:J90" si="14">ABS(I71)</f>
+        <f t="shared" ref="J71:J90" si="17">ABS(I71)</f>
         <v>4.1277906411062304</v>
       </c>
       <c r="K71" s="68">
-        <f t="shared" ref="K71:K89" si="15">_xlfn.RANK.AVG(J71,J$6:J$90,1)</f>
+        <f t="shared" ref="K71:K89" si="18">_xlfn.RANK.AVG(J71,J$6:J$90,1)</f>
         <v>84</v>
       </c>
       <c r="M71">
-        <f>(B71-$K71)^2</f>
+        <f t="shared" si="16"/>
         <v>5184</v>
       </c>
       <c r="N71">
@@ -40546,43 +40556,43 @@
         <v>94.631428571428572</v>
       </c>
       <c r="B72" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>27</v>
       </c>
       <c r="C72" s="67">
         <v>7.2691999999999997</v>
       </c>
       <c r="D72" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="E72" s="67">
         <v>66.581630204512578</v>
       </c>
       <c r="F72" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="G72" s="67">
         <v>-1.2664450231524911</v>
       </c>
       <c r="H72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>51</v>
       </c>
       <c r="I72" s="76">
         <v>-1.3859170632534443</v>
       </c>
       <c r="J72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3859170632534443</v>
       </c>
       <c r="K72" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>61</v>
       </c>
       <c r="M72">
-        <f>(B72-$K72)^2</f>
+        <f t="shared" si="16"/>
         <v>1156</v>
       </c>
       <c r="N72">
@@ -40600,43 +40610,43 @@
         <v>199.76401785714285</v>
       </c>
       <c r="B73" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="C73" s="67">
         <v>6.0492999999999997</v>
       </c>
       <c r="D73" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="E73" s="67">
         <v>51.799068387489584</v>
       </c>
       <c r="F73" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="G73" s="67">
         <v>-3.6103227387221497</v>
       </c>
       <c r="H73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="I73" s="76">
         <v>-0.53761806674857837</v>
       </c>
       <c r="J73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.53761806674857837</v>
       </c>
       <c r="K73" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="M73">
-        <f>(B73-$K73)^2</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="N73">
@@ -40654,43 +40664,43 @@
         <v>11.688445158019265</v>
       </c>
       <c r="B74" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C74" s="67">
         <v>6.3685999999999998</v>
       </c>
       <c r="D74" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="E74" s="67">
         <v>66.351263408065364</v>
       </c>
       <c r="F74" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="G74" s="67">
         <v>0.34974999352314823</v>
       </c>
       <c r="H74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="I74" s="76">
         <v>-1.2200291801578658</v>
       </c>
       <c r="J74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2200291801578658</v>
       </c>
       <c r="K74" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>59</v>
       </c>
       <c r="M74">
-        <f>(B74-$K74)^2</f>
+        <f t="shared" si="16"/>
         <v>2704</v>
       </c>
       <c r="N74">
@@ -40708,43 +40718,43 @@
         <v>33.030600154878684</v>
       </c>
       <c r="B75" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="C75" s="67">
         <v>7.2083000000000004</v>
       </c>
       <c r="D75" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>55</v>
       </c>
       <c r="E75" s="67">
         <v>63.109683277330099</v>
       </c>
       <c r="F75" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>33</v>
       </c>
       <c r="G75" s="67">
         <v>-4.4168538579456191</v>
       </c>
       <c r="H75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="I75" s="76">
         <v>-1.4582286133629196</v>
       </c>
       <c r="J75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4582286133629196</v>
       </c>
       <c r="K75" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>65</v>
       </c>
       <c r="M75">
-        <f>(B75-$K75)^2</f>
+        <f t="shared" si="16"/>
         <v>2401</v>
       </c>
       <c r="N75">
@@ -40762,43 +40772,43 @@
         <v>183.05293625914317</v>
       </c>
       <c r="B76" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
       <c r="C76" s="67">
         <v>6.7138</v>
       </c>
       <c r="D76" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="E76" s="67">
         <v>50.757197693136064</v>
       </c>
       <c r="F76" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="G76" s="67">
         <v>-1.9965177643784964</v>
       </c>
       <c r="H76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="I76" s="76">
         <v>-1.1902503855867081</v>
       </c>
       <c r="J76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1902503855867081</v>
       </c>
       <c r="K76" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>55</v>
       </c>
       <c r="M76">
-        <f>(B76-$K76)^2</f>
+        <f t="shared" si="16"/>
         <v>256</v>
       </c>
       <c r="N76">
@@ -40816,43 +40826,43 @@
         <v>113.04934195725534</v>
       </c>
       <c r="B77" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="C77" s="67">
         <v>6.2704000000000004</v>
       </c>
       <c r="D77" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="E77" s="67">
         <v>67.809720821938186</v>
       </c>
       <c r="F77" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45</v>
       </c>
       <c r="G77" s="67">
         <v>2.9930380497960316</v>
       </c>
       <c r="H77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>75</v>
       </c>
       <c r="I77" s="76">
         <v>-0.60843772060776757</v>
       </c>
       <c r="J77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.60843772060776757</v>
       </c>
       <c r="K77" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="M77">
-        <f>(B77-$K77)^2</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="N77">
@@ -40870,43 +40880,43 @@
         <v>100.20426647767542</v>
       </c>
       <c r="B78" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="C78" s="67">
         <v>5.3423999999999996</v>
       </c>
       <c r="D78" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="E78" s="67">
         <v>61.882298109137416</v>
       </c>
       <c r="F78" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="G78" s="67">
         <v>-5.2248483287128478</v>
       </c>
       <c r="H78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="I78" s="76">
         <v>-0.32418631911669138</v>
       </c>
       <c r="J78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.32418631911669138</v>
       </c>
       <c r="K78" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="M78">
-        <f>(B78-$K78)^2</f>
+        <f t="shared" si="16"/>
         <v>144</v>
       </c>
       <c r="N78">
@@ -40924,43 +40934,43 @@
         <v>25.636374045801524</v>
       </c>
       <c r="B79" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="C79" s="67">
         <v>6.7343000000000002</v>
       </c>
       <c r="D79" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="E79" s="67">
         <v>61.843171958177962</v>
       </c>
       <c r="F79" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="G79" s="67">
         <v>-6.1718636788786565</v>
       </c>
       <c r="H79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="I79" s="76">
         <v>1.8733738533035194</v>
       </c>
       <c r="J79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.8733738533035194</v>
       </c>
       <c r="K79" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>73</v>
       </c>
       <c r="M79">
-        <f>(B79-$K79)^2</f>
+        <f t="shared" si="16"/>
         <v>3481</v>
       </c>
       <c r="N79">
@@ -40978,43 +40988,43 @@
         <v>27.26254768004554</v>
       </c>
       <c r="B80" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="C80" s="67">
         <v>5.9478999999999997</v>
       </c>
       <c r="D80" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="E80" s="67">
         <v>43.257055280529556</v>
       </c>
       <c r="F80" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="G80" s="67">
         <v>-2.3385629750365817</v>
       </c>
       <c r="H80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>36</v>
       </c>
       <c r="I80" s="76">
         <v>-1.6281585532827307</v>
       </c>
       <c r="J80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6281585532827307</v>
       </c>
       <c r="K80" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>69</v>
       </c>
       <c r="M80">
-        <f>(B80-$K80)^2</f>
+        <f t="shared" si="16"/>
         <v>2916</v>
       </c>
       <c r="N80">
@@ -41032,43 +41042,43 @@
         <v>34.868094466311646</v>
       </c>
       <c r="B81" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="C81" s="67">
         <v>6.0160999999999998</v>
       </c>
       <c r="D81" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="E81" s="67">
         <v>44.269284970205497</v>
       </c>
       <c r="F81" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="G81" s="67">
         <v>-5.4691560388597935</v>
       </c>
       <c r="H81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="I81" s="76">
         <v>-3.3096785243331084</v>
       </c>
       <c r="J81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3.3096785243331084</v>
       </c>
       <c r="K81" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>82</v>
       </c>
       <c r="M81">
-        <f>(B81-$K81)^2</f>
+        <f t="shared" si="16"/>
         <v>4096</v>
       </c>
       <c r="N81">
@@ -41086,43 +41096,43 @@
         <v>4.0987403924112211</v>
       </c>
       <c r="B82" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C82" s="67">
         <v>6.3163999999999998</v>
       </c>
       <c r="D82" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
       <c r="E82" s="67">
         <v>45.311168016410036</v>
       </c>
       <c r="F82" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="G82" s="67">
         <v>-3.7872068773031158</v>
       </c>
       <c r="H82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="I82" s="76">
         <v>3.1153016008171903</v>
       </c>
       <c r="J82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3.1153016008171903</v>
       </c>
       <c r="K82" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>80</v>
       </c>
       <c r="M82">
-        <f>(B82-$K82)^2</f>
+        <f t="shared" si="16"/>
         <v>5929</v>
       </c>
       <c r="N82">
@@ -41140,43 +41150,43 @@
         <v>4.4125285375834586</v>
       </c>
       <c r="B83" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C83" s="67">
         <v>10.472200000000001</v>
       </c>
       <c r="D83" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>81</v>
       </c>
       <c r="E83" s="67">
         <v>69.612921540940206</v>
       </c>
       <c r="F83" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="G83" s="67">
         <v>-10.127352396316828</v>
       </c>
       <c r="H83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I83" s="76">
         <v>1.1462136893981381</v>
       </c>
       <c r="J83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1462136893981381</v>
       </c>
       <c r="K83" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="M83">
-        <f>(B83-$K83)^2</f>
+        <f t="shared" si="16"/>
         <v>2209</v>
       </c>
       <c r="N83">
@@ -41194,43 +41204,43 @@
         <v>93.733011536126298</v>
       </c>
       <c r="B84" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>26</v>
       </c>
       <c r="C84" s="67">
         <v>8.5089000000000006</v>
       </c>
       <c r="D84" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>67</v>
       </c>
       <c r="E84" s="67">
         <v>54.842142902124117</v>
       </c>
       <c r="F84" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="G84" s="67">
         <v>-5.7069612223060098</v>
       </c>
       <c r="H84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="I84" s="76">
         <v>-0.41091362669794762</v>
       </c>
       <c r="J84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.41091362669794762</v>
       </c>
       <c r="K84" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="M84">
-        <f>(B84-$K84)^2</f>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="N84">
@@ -41248,43 +41258,43 @@
         <v>12.815648806500761</v>
       </c>
       <c r="B85" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="C85" s="67">
         <v>9.3431999999999995</v>
       </c>
       <c r="D85" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
       <c r="E85" s="67">
         <v>74.517574659485547</v>
       </c>
       <c r="F85" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>63</v>
       </c>
       <c r="G85" s="67">
         <v>-2.312100275069541</v>
       </c>
       <c r="H85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
       <c r="I85" s="76">
         <v>-1.0797839866736751</v>
       </c>
       <c r="J85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0797839866736751</v>
       </c>
       <c r="K85" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>48</v>
       </c>
       <c r="M85">
-        <f>(B85-$K85)^2</f>
+        <f t="shared" si="16"/>
         <v>1600</v>
       </c>
       <c r="N85">
@@ -41302,43 +41312,43 @@
         <v>37.213603205305333</v>
       </c>
       <c r="B86" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="C86" s="67">
         <v>9.3302999999999994</v>
       </c>
       <c r="D86" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>74</v>
       </c>
       <c r="E86" s="67">
         <v>56.857396792783206</v>
       </c>
       <c r="F86" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="G86" s="67">
         <v>-4.0127296776981813</v>
       </c>
       <c r="H86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="I86" s="76">
         <v>-1.6785967722924369</v>
       </c>
       <c r="J86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6785967722924369</v>
       </c>
       <c r="K86" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>70</v>
       </c>
       <c r="M86">
-        <f>(B86-$K86)^2</f>
+        <f t="shared" si="16"/>
         <v>2601</v>
       </c>
       <c r="N86">
@@ -41356,43 +41366,43 @@
         <v>5.567541621621622</v>
       </c>
       <c r="B87" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C87" s="67">
         <v>10.2525</v>
       </c>
       <c r="D87" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="E87" s="67">
         <v>58.340652061918895</v>
       </c>
       <c r="F87" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="G87" s="67">
         <v>-7.6890815042639451</v>
       </c>
       <c r="H87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="I87" s="76">
         <v>0.76050582094376296</v>
       </c>
       <c r="J87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.76050582094376296</v>
       </c>
       <c r="K87" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>37</v>
       </c>
       <c r="M87">
-        <f>(B87-$K87)^2</f>
+        <f t="shared" si="16"/>
         <v>1024</v>
       </c>
       <c r="N87">
@@ -41410,43 +41420,43 @@
         <v>33.240470723306544</v>
       </c>
       <c r="B88" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="C88" s="67">
         <v>11.4642</v>
       </c>
       <c r="D88" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
       <c r="E88" s="67">
         <v>63.001172461778225</v>
       </c>
       <c r="F88" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="G88" s="67">
         <v>-8.6500475312708538</v>
       </c>
       <c r="H88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="I88" s="76">
         <v>1.9141560608421884</v>
       </c>
       <c r="J88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.9141560608421884</v>
       </c>
       <c r="K88" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>74</v>
       </c>
       <c r="M88">
-        <f>(B88-$K88)^2</f>
+        <f t="shared" si="16"/>
         <v>3249</v>
       </c>
       <c r="N88">
@@ -41464,43 +41474,43 @@
         <v>71.243526170798901</v>
       </c>
       <c r="B89" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="C89" s="67">
         <v>10.105600000000001</v>
       </c>
       <c r="D89" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>79</v>
       </c>
       <c r="E89" s="67">
         <v>48.478446081573331</v>
       </c>
       <c r="F89" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="G89" s="67">
         <v>-8.6040914560770165</v>
       </c>
       <c r="H89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="I89" s="76">
         <v>-0.4933665458670049</v>
       </c>
       <c r="J89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.4933665458670049</v>
       </c>
       <c r="K89" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="M89">
-        <f>(B89-$K89)^2</f>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="N89">
@@ -41518,35 +41528,35 @@
         <v>1.3449341649341648</v>
       </c>
       <c r="B90" s="70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C90" s="69">
         <v>8.2840000000000007</v>
       </c>
       <c r="D90" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>63</v>
       </c>
       <c r="E90" s="69">
         <v>70.101023505797656</v>
       </c>
       <c r="F90" s="70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>54</v>
       </c>
       <c r="G90" s="69">
         <v>-1.7534338078737526</v>
       </c>
       <c r="H90" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>43</v>
       </c>
       <c r="I90" s="77">
         <v>-3.7617197731663197</v>
       </c>
       <c r="J90" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3.7617197731663197</v>
       </c>
       <c r="K90" s="70">
@@ -41554,7 +41564,7 @@
         <v>83</v>
       </c>
       <c r="M90">
-        <f>(B90-$K90)^2</f>
+        <f t="shared" si="16"/>
         <v>6724</v>
       </c>
       <c r="N90">
@@ -41609,44 +41619,44 @@
       </c>
       <c r="M92">
         <f>I93</f>
-        <v>1.52</v>
-      </c>
-      <c r="N92" t="s">
+        <v>1.55</v>
+      </c>
+      <c r="N92" s="81" t="s">
         <v>231</v>
       </c>
       <c r="O92">
         <f>J93</f>
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P92" t="s">
         <v>232</v>
       </c>
       <c r="Q92">
         <f>4-J93</f>
-        <v>2.2800000000000002</v>
+        <v>2.25</v>
       </c>
       <c r="R92" t="s">
         <v>233</v>
       </c>
       <c r="S92">
         <f>4-I93</f>
-        <v>2.48</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="U92">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B93" s="76">
-        <v>-0.24276898003904535</v>
+      <c r="B93">
+        <v>9.3830829239522018E-2</v>
       </c>
       <c r="D93">
         <f>B93^2</f>
-        <v>5.8936777669198401E-2</v>
+        <v>8.8042245157763394E-3</v>
       </c>
       <c r="F93">
         <f>SUM(E94:E177)/SUM(D93:D177)</f>
-        <v>1.7234067840602161</v>
+        <v>1.5590865506382685</v>
       </c>
       <c r="G93" s="78">
         <v>85</v>
@@ -41655,1445 +41665,1441 @@
         <v>5</v>
       </c>
       <c r="I93" s="78">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="J93">
-        <v>1.72</v>
-      </c>
-      <c r="P93" t="s">
+        <v>1.75</v>
+      </c>
+      <c r="N93" s="81" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B94" s="76">
-        <v>-0.92972670498097898</v>
+      <c r="B94">
+        <v>-0.91310912918419262</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:C157" si="16">B93</f>
-        <v>-0.24276898003904535</v>
+        <f t="shared" ref="C94:C157" si="19">B93</f>
+        <v>9.3830829239522018E-2</v>
       </c>
       <c r="D94">
-        <f t="shared" ref="D94:D157" si="17">B94^2</f>
-        <v>0.86439174595478829</v>
+        <f t="shared" ref="D94:D157" si="20">B94^2</f>
+        <v>0.83376828179951457</v>
       </c>
       <c r="E94">
-        <f t="shared" ref="E94:E125" si="18">(B94-C94)^2</f>
-        <v>0.47191091585739736</v>
-      </c>
-      <c r="P94" s="79" t="str">
-        <f>"=&gt; автокорреляции остатков нет"</f>
-        <v>=&gt; автокорреляции остатков нет</v>
+        <f t="shared" ref="E94:E125" si="21">(B94-C94)^2</f>
+        <v>1.0139280798703523</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B95" s="76">
-        <v>-8.7882068751355291E-2</v>
+      <c r="B95">
+        <v>0.2904644243156298</v>
       </c>
       <c r="C95">
-        <f t="shared" si="16"/>
-        <v>-0.92972670498097898</v>
+        <f t="shared" si="19"/>
+        <v>-0.91310912918419262</v>
       </c>
       <c r="D95">
-        <f t="shared" si="17"/>
-        <v>7.7232580080179381E-3</v>
+        <f t="shared" si="20"/>
+        <v>8.4369581793010226E-2</v>
       </c>
       <c r="E95">
-        <f t="shared" si="18"/>
-        <v>0.70870239154858738</v>
+        <f t="shared" si="21"/>
+        <v>1.44858929868419</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B96" s="76">
-        <v>-1.0659597338611491</v>
+      <c r="B96">
+        <v>-1.0645743699912344</v>
       </c>
       <c r="C96">
-        <f t="shared" si="16"/>
-        <v>-8.7882068751355291E-2</v>
+        <f t="shared" si="19"/>
+        <v>0.2904644243156298</v>
       </c>
       <c r="D96">
-        <f t="shared" si="17"/>
-        <v>1.1362701542133318</v>
+        <f t="shared" si="20"/>
+        <v>1.1333185892422337</v>
       </c>
       <c r="E96">
-        <f t="shared" si="18"/>
-        <v>0.95663591898662592</v>
+        <f t="shared" si="21"/>
+        <v>1.8361301340766003</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="76">
-        <v>-0.68896222465826895</v>
+      <c r="B97">
+        <v>-0.91009456425568658</v>
       </c>
       <c r="C97">
-        <f t="shared" si="16"/>
-        <v>-1.0659597338611491</v>
+        <f t="shared" si="19"/>
+        <v>-1.0645743699912344</v>
       </c>
       <c r="D97">
-        <f t="shared" si="17"/>
-        <v>0.47466894700607104</v>
+        <f t="shared" si="20"/>
+        <v>0.82827211588774807</v>
       </c>
       <c r="E97">
-        <f t="shared" si="18"/>
-        <v>0.14212712194517568</v>
+        <f t="shared" si="21"/>
+        <v>2.3864010380092608E-2</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="76">
-        <v>0.44195504366555838</v>
+      <c r="B98">
+        <v>0.2127861363928929</v>
       </c>
       <c r="C98">
-        <f t="shared" si="16"/>
-        <v>-0.68896222465826895</v>
+        <f t="shared" si="19"/>
+        <v>-0.91009456425568658</v>
       </c>
       <c r="D98">
-        <f t="shared" si="17"/>
-        <v>0.1953242606214256</v>
+        <f t="shared" si="20"/>
+        <v>4.5277939841014823E-2</v>
       </c>
       <c r="E98">
-        <f t="shared" si="18"/>
-        <v>1.2789738677930276</v>
+        <f t="shared" si="21"/>
+        <v>1.2608610678890448</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="76">
-        <v>0.41695632497150825</v>
+      <c r="B99">
+        <v>0.43236713273094551</v>
       </c>
       <c r="C99">
-        <f t="shared" si="16"/>
-        <v>0.44195504366555838</v>
+        <f t="shared" si="19"/>
+        <v>0.2127861363928929</v>
       </c>
       <c r="D99">
-        <f t="shared" si="17"/>
-        <v>0.17385257693374601</v>
+        <f t="shared" si="20"/>
+        <v>0.18694133746597905</v>
       </c>
       <c r="E99">
-        <f t="shared" si="18"/>
-        <v>6.2493593634425123E-4</v>
+        <f t="shared" si="21"/>
+        <v>4.8215813952811874E-2</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B100" s="76">
-        <v>-1.1333742436192722</v>
+      <c r="B100">
+        <v>-1.0432991731248791</v>
       </c>
       <c r="C100">
-        <f t="shared" si="16"/>
-        <v>0.41695632497150825</v>
+        <f t="shared" si="19"/>
+        <v>0.43236713273094551</v>
       </c>
       <c r="D100">
-        <f t="shared" si="17"/>
-        <v>1.2845371760995574</v>
+        <f t="shared" si="20"/>
+        <v>1.0884731646430563</v>
       </c>
       <c r="E100">
-        <f t="shared" si="18"/>
-        <v>2.4035248719070128</v>
+        <f t="shared" si="21"/>
+        <v>2.177591046238176</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B101" s="76">
-        <v>-1.2014812443671019</v>
+      <c r="B101">
+        <v>-1.3384745949147145</v>
       </c>
       <c r="C101">
-        <f t="shared" si="16"/>
-        <v>-1.1333742436192722</v>
+        <f t="shared" si="19"/>
+        <v>-1.0432991731248791</v>
       </c>
       <c r="D101">
-        <f t="shared" si="17"/>
-        <v>1.4435571805659198</v>
+        <f t="shared" si="20"/>
+        <v>1.7915142412321092</v>
       </c>
       <c r="E101">
-        <f t="shared" si="18"/>
-        <v>4.6385635508648772E-3</v>
+        <f t="shared" si="21"/>
+        <v>8.712852962880728E-2</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B102" s="76">
-        <v>0.18721400707880775</v>
+      <c r="B102">
+        <v>8.0097947354119015E-2</v>
       </c>
       <c r="C102">
-        <f t="shared" si="16"/>
-        <v>-1.2014812443671019</v>
+        <f t="shared" si="19"/>
+        <v>-1.3384745949147145</v>
       </c>
       <c r="D102">
-        <f t="shared" si="17"/>
-        <v>3.5049084446503877E-2</v>
+        <f t="shared" si="20"/>
+        <v>6.4156811703432216E-3</v>
       </c>
       <c r="E102">
-        <f t="shared" si="18"/>
-        <v>1.9284745013884184</v>
+        <f t="shared" si="21"/>
+        <v>2.0123480576790618</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="76">
-        <v>-1.2055280604398746</v>
+      <c r="B103">
+        <v>-1.2560378413408131</v>
       </c>
       <c r="C103">
-        <f t="shared" si="16"/>
-        <v>0.18721400707880775</v>
+        <f t="shared" si="19"/>
+        <v>8.0097947354119015E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="17"/>
-        <v>1.453297904507926</v>
+        <f t="shared" si="20"/>
+        <v>1.5776310588800895</v>
       </c>
       <c r="E103">
-        <f t="shared" si="18"/>
-        <v>1.9397304666362138</v>
+        <f t="shared" si="21"/>
+        <v>1.7852588458314282</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="76">
-        <v>0.61465211413255361</v>
+      <c r="B104">
+        <v>0.37393543245616456</v>
       </c>
       <c r="C104">
-        <f t="shared" si="16"/>
-        <v>-1.2055280604398746</v>
+        <f t="shared" si="19"/>
+        <v>-1.2560378413408131</v>
       </c>
       <c r="D104">
-        <f t="shared" si="17"/>
-        <v>0.37779722140761768</v>
+        <f t="shared" si="20"/>
+        <v>0.1398277076461788</v>
       </c>
       <c r="E104">
-        <f t="shared" si="18"/>
-        <v>3.3130558679065154</v>
+        <f t="shared" si="21"/>
+        <v>2.656812873292437</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B105" s="76">
-        <v>0.59890068370749816</v>
+      <c r="B105">
+        <v>0.47424170635801488</v>
       </c>
       <c r="C105">
-        <f t="shared" si="16"/>
-        <v>0.61465211413255361</v>
+        <f t="shared" si="19"/>
+        <v>0.37393543245616456</v>
       </c>
       <c r="D105">
-        <f t="shared" si="17"/>
-        <v>0.35868202894530876</v>
+        <f t="shared" si="20"/>
+        <v>0.2249051960493616</v>
       </c>
       <c r="E105">
-        <f t="shared" si="18"/>
-        <v>2.4810756043536241E-4</v>
+        <f t="shared" si="21"/>
+        <v>1.0061348584073019E-2</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B106" s="76">
-        <v>-0.53583216914431375</v>
+      <c r="B106">
+        <v>-0.62344802322880355</v>
       </c>
       <c r="C106">
-        <f t="shared" si="16"/>
-        <v>0.59890068370749816</v>
+        <f t="shared" si="19"/>
+        <v>0.47424170635801488</v>
       </c>
       <c r="D106">
-        <f t="shared" si="17"/>
-        <v>0.28711611348990046</v>
+        <f t="shared" si="20"/>
+        <v>0.38868743766790276</v>
       </c>
       <c r="E106">
-        <f t="shared" si="18"/>
-        <v>1.2876186473412119</v>
+        <f t="shared" si="21"/>
+        <v>1.2049227424403826</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B107" s="76">
-        <v>-9.7613272286693586E-2</v>
+      <c r="B107">
+        <v>-0.18259398326731002</v>
       </c>
       <c r="C107">
-        <f t="shared" si="16"/>
-        <v>-0.53583216914431375</v>
+        <f t="shared" si="19"/>
+        <v>-0.62344802322880355</v>
       </c>
       <c r="D107">
-        <f t="shared" si="17"/>
-        <v>9.5283509265161829E-3</v>
+        <f t="shared" si="20"/>
+        <v>3.3340562725422691E-2</v>
       </c>
       <c r="E107">
-        <f t="shared" si="18"/>
-        <v>0.19203580156310954</v>
+        <f t="shared" si="21"/>
+        <v>0.19435228455037012</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B108" s="76">
-        <v>-0.80539702133751234</v>
+      <c r="B108">
+        <v>-1.1322422428436454</v>
       </c>
       <c r="C108">
-        <f t="shared" si="16"/>
-        <v>-9.7613272286693586E-2</v>
+        <f t="shared" si="19"/>
+        <v>-0.18259398326731002</v>
       </c>
       <c r="D108">
-        <f t="shared" si="17"/>
-        <v>0.6486643619793373</v>
+        <f t="shared" si="20"/>
+        <v>1.2819724964796084</v>
       </c>
       <c r="E108">
-        <f t="shared" si="18"/>
-        <v>0.50095783542043237</v>
+        <f t="shared" si="21"/>
+        <v>0.90183181691636283</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B109" s="76">
-        <v>0.37494685720579923</v>
+      <c r="B109">
+        <v>0.19257957852670415</v>
       </c>
       <c r="C109">
-        <f t="shared" si="16"/>
-        <v>-0.80539702133751234</v>
+        <f t="shared" si="19"/>
+        <v>-1.1322422428436454</v>
       </c>
       <c r="D109">
-        <f t="shared" si="17"/>
-        <v>0.140585145728506</v>
+        <f t="shared" si="20"/>
+        <v>3.7086894065523013E-2</v>
       </c>
       <c r="E109">
-        <f t="shared" si="18"/>
-        <v>1.3932116716146679</v>
+        <f t="shared" si="21"/>
+        <v>1.7551528583790503</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B110" s="76">
-        <v>1.44782324988347</v>
+      <c r="B110">
+        <v>0.92303864803498925</v>
       </c>
       <c r="C110">
-        <f t="shared" si="16"/>
-        <v>0.37494685720579923</v>
+        <f t="shared" si="19"/>
+        <v>0.19257957852670415</v>
       </c>
       <c r="D110">
-        <f t="shared" si="17"/>
-        <v>2.0961921629031326</v>
+        <f t="shared" si="20"/>
+        <v>0.85200034576626071</v>
       </c>
       <c r="E110">
-        <f t="shared" si="18"/>
-        <v>1.1510637539650517</v>
+        <f t="shared" si="21"/>
+        <v>0.53357045222690969</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B111" s="76">
-        <v>0.30643415673621632</v>
+      <c r="B111">
+        <v>0.22350552827556669</v>
       </c>
       <c r="C111">
-        <f t="shared" si="16"/>
-        <v>1.44782324988347</v>
+        <f t="shared" si="19"/>
+        <v>0.92303864803498925</v>
       </c>
       <c r="D111">
-        <f t="shared" si="17"/>
-        <v>9.3901892414635993E-2</v>
+        <f t="shared" si="20"/>
+        <v>4.9954721169740139E-2</v>
       </c>
       <c r="E111">
-        <f t="shared" si="18"/>
-        <v>1.3027690619555101</v>
+        <f t="shared" si="21"/>
+        <v>0.48934658564035061</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B112" s="76">
-        <v>1.0541365537173277</v>
+      <c r="B112">
+        <v>1.318871669466148</v>
       </c>
       <c r="C112">
-        <f t="shared" si="16"/>
-        <v>0.30643415673621632</v>
+        <f t="shared" si="19"/>
+        <v>0.22350552827556669</v>
       </c>
       <c r="D112">
-        <f t="shared" si="17"/>
-        <v>1.1112038738830445</v>
+        <f t="shared" si="20"/>
+        <v>1.7394224805204244</v>
       </c>
       <c r="E112">
-        <f t="shared" si="18"/>
-        <v>0.55905887445129954</v>
+        <f t="shared" si="21"/>
+        <v>1.1998269832667445</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B113" s="76">
-        <v>1.5715105366464144</v>
+      <c r="B113">
+        <v>1.751465512028517</v>
       </c>
       <c r="C113">
-        <f t="shared" si="16"/>
-        <v>1.0541365537173277</v>
+        <f t="shared" si="19"/>
+        <v>1.318871669466148</v>
       </c>
       <c r="D113">
-        <f t="shared" si="17"/>
-        <v>2.4696453667907012</v>
+        <f t="shared" si="20"/>
+        <v>3.0676314398253153</v>
       </c>
       <c r="E113">
-        <f t="shared" si="18"/>
-        <v>0.26767583821190682</v>
+        <f t="shared" si="21"/>
+        <v>0.18713743262287569</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B114" s="76">
-        <v>1.1576721271463981</v>
+      <c r="B114">
+        <v>1.3741470480749172</v>
       </c>
       <c r="C114">
-        <f t="shared" si="16"/>
-        <v>1.5715105366464144</v>
+        <f t="shared" si="19"/>
+        <v>1.751465512028517</v>
       </c>
       <c r="D114">
-        <f t="shared" si="17"/>
-        <v>1.3402047539716662</v>
+        <f t="shared" si="20"/>
+        <v>1.8882801097330086</v>
       </c>
       <c r="E114">
-        <f t="shared" si="18"/>
-        <v>0.17126222917750317</v>
+        <f t="shared" si="21"/>
+        <v>0.14236922324030399</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B115" s="76">
-        <v>-1.2849404262000235</v>
+      <c r="B115">
+        <v>-1.3540443749188995</v>
       </c>
       <c r="C115">
-        <f t="shared" si="16"/>
-        <v>1.1576721271463981</v>
+        <f t="shared" si="19"/>
+        <v>1.3741470480749172</v>
       </c>
       <c r="D115">
-        <f t="shared" si="17"/>
-        <v>1.6510718988830979</v>
+        <f t="shared" si="20"/>
+        <v>1.8334361692495134</v>
       </c>
       <c r="E115">
-        <f t="shared" si="18"/>
-        <v>5.9663560857655256</v>
+        <f t="shared" si="21"/>
+        <v>7.4430284404970264</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B116" s="76">
-        <v>1.6104357271529182</v>
+      <c r="B116">
+        <v>1.2872281780173154</v>
       </c>
       <c r="C116">
-        <f t="shared" si="16"/>
-        <v>-1.2849404262000235</v>
+        <f t="shared" si="19"/>
+        <v>-1.3540443749188995</v>
       </c>
       <c r="D116">
-        <f t="shared" si="17"/>
-        <v>2.5935032312905482</v>
+        <f t="shared" si="20"/>
+        <v>1.6569563822817774</v>
       </c>
       <c r="E116">
-        <f t="shared" si="18"/>
-        <v>8.3832030694048765</v>
+        <f t="shared" si="21"/>
+        <v>6.9763206988941899</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B117" s="76">
-        <v>-0.81021863595859145</v>
+      <c r="B117">
+        <v>-0.54772687385626284</v>
       </c>
       <c r="C117">
-        <f t="shared" si="16"/>
-        <v>1.6104357271529182</v>
+        <f t="shared" si="19"/>
+        <v>1.2872281780173154</v>
       </c>
       <c r="D117">
-        <f t="shared" si="17"/>
-        <v>0.65645423805460057</v>
+        <f t="shared" si="20"/>
+        <v>0.30000472834435449</v>
       </c>
       <c r="E117">
-        <f t="shared" si="18"/>
-        <v>5.8595675456507879</v>
+        <f t="shared" si="21"/>
+        <v>3.3670600423963659</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B118" s="76">
-        <v>5.4258860509804663E-2</v>
+      <c r="B118">
+        <v>-5.1873669206031536E-2</v>
       </c>
       <c r="C118">
-        <f t="shared" si="16"/>
-        <v>-0.81021863595859145</v>
+        <f t="shared" si="19"/>
+        <v>-0.54772687385626284</v>
       </c>
       <c r="D118">
-        <f t="shared" si="17"/>
-        <v>2.9440239438224399E-3</v>
+        <f t="shared" si="20"/>
+        <v>2.6908775568967843E-3</v>
       </c>
       <c r="E118">
-        <f t="shared" si="18"/>
-        <v>0.74732134190026578</v>
+        <f t="shared" si="21"/>
+        <v>0.24587040056190418</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B119" s="76">
-        <v>-0.14536175376892402</v>
+      <c r="B119">
+        <v>-6.8676873586539955E-2</v>
       </c>
       <c r="C119">
-        <f t="shared" si="16"/>
-        <v>5.4258860509804663E-2</v>
+        <f t="shared" si="19"/>
+        <v>-5.1873669206031536E-2</v>
       </c>
       <c r="D119">
-        <f t="shared" si="17"/>
-        <v>2.1130039458777297E-2</v>
+        <f t="shared" si="20"/>
+        <v>4.7165129656215896E-3</v>
       </c>
       <c r="E119">
-        <f t="shared" si="18"/>
-        <v>3.9848389645016975E-2</v>
+        <f t="shared" si="21"/>
+        <v>2.8234767745313733E-4</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="76">
-        <v>-0.64515777679469011</v>
+      <c r="B120">
+        <v>-0.81061264336258887</v>
       </c>
       <c r="C120">
-        <f t="shared" si="16"/>
-        <v>-0.14536175376892402</v>
+        <f t="shared" si="19"/>
+        <v>-6.8676873586539955E-2</v>
       </c>
       <c r="D120">
-        <f t="shared" si="17"/>
-        <v>0.41622855695866717</v>
+        <f t="shared" si="20"/>
+        <v>0.65709285757928371</v>
       </c>
       <c r="E120">
-        <f t="shared" si="18"/>
-        <v>0.24979606463237211</v>
+        <f t="shared" si="21"/>
+        <v>0.55046868647317826</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B121" s="76">
-        <v>0.51965753461344377</v>
+      <c r="B121">
+        <v>0.2472789777265092</v>
       </c>
       <c r="C121">
-        <f t="shared" si="16"/>
-        <v>-0.64515777679469011</v>
+        <f t="shared" si="19"/>
+        <v>-0.81061264336258887</v>
       </c>
       <c r="D121">
-        <f t="shared" si="17"/>
-        <v>0.2700439532805225</v>
+        <f t="shared" si="20"/>
+        <v>6.1146892825467432E-2</v>
       </c>
       <c r="E121">
-        <f t="shared" si="18"/>
-        <v>1.3567947096908279</v>
+        <f t="shared" si="21"/>
+        <v>1.1191346819705199</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B122" s="76">
-        <v>3.2419306071781335</v>
+      <c r="B122">
+        <v>3.2839299824232029</v>
       </c>
       <c r="C122">
-        <f t="shared" si="16"/>
-        <v>0.51965753461344377</v>
+        <f t="shared" si="19"/>
+        <v>0.2472789777265092</v>
       </c>
       <c r="D122">
-        <f t="shared" si="17"/>
-        <v>10.510114061758381</v>
+        <f t="shared" si="20"/>
+        <v>10.784196129458058</v>
       </c>
       <c r="E122">
-        <f t="shared" si="18"/>
-        <v>7.4107706816107966</v>
+        <f t="shared" si="21"/>
+        <v>9.2212493243254396</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B123" s="76">
-        <v>-1.4977539966544384</v>
+      <c r="B123">
+        <v>0.19439971717319793</v>
       </c>
       <c r="C123">
-        <f t="shared" si="16"/>
-        <v>3.2419306071781335</v>
+        <f t="shared" si="19"/>
+        <v>3.2839299824232029</v>
       </c>
       <c r="D123">
-        <f t="shared" si="17"/>
-        <v>2.2432670344943437</v>
+        <f t="shared" si="20"/>
+        <v>3.7791250037019344E-2</v>
       </c>
       <c r="E123">
-        <f t="shared" si="18"/>
-        <v>22.464610143807526</v>
+        <f t="shared" si="21"/>
+        <v>9.5451972598957653</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B124" s="76">
-        <v>0.37382389718388254</v>
+      <c r="B124">
+        <v>0.38156868973490532</v>
       </c>
       <c r="C124">
-        <f t="shared" si="16"/>
-        <v>-1.4977539966544384</v>
+        <f t="shared" si="19"/>
+        <v>0.19439971717319793</v>
       </c>
       <c r="D124">
-        <f t="shared" si="17"/>
-        <v>0.13974430610574598</v>
+        <f t="shared" si="20"/>
+        <v>0.14559466498601245</v>
       </c>
       <c r="E124">
-        <f t="shared" si="18"/>
-        <v>3.5028038127042853</v>
+        <f t="shared" si="21"/>
+        <v>3.5032224289805174E-2</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B125" s="76">
-        <v>-0.3028763353493531</v>
+      <c r="B125">
+        <v>-0.23974805328454352</v>
       </c>
       <c r="C125">
-        <f t="shared" si="16"/>
-        <v>0.37382389718388254</v>
+        <f t="shared" si="19"/>
+        <v>0.38156868973490532</v>
       </c>
       <c r="D125">
-        <f t="shared" si="17"/>
-        <v>9.1734074514653791E-2</v>
+        <f t="shared" si="20"/>
+        <v>5.7479129053728317E-2</v>
       </c>
       <c r="E125">
-        <f t="shared" si="18"/>
-        <v>0.45792320471053516</v>
+        <f t="shared" si="21"/>
+        <v>0.38603449515629584</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B126" s="76">
-        <v>0.34180308622511291</v>
+      <c r="B126">
+        <v>0.1739683882605334</v>
       </c>
       <c r="C126">
-        <f t="shared" si="16"/>
-        <v>-0.3028763353493531</v>
+        <f t="shared" si="19"/>
+        <v>-0.23974805328454352</v>
       </c>
       <c r="D126">
-        <f t="shared" si="17"/>
-        <v>0.11682934975301197</v>
+        <f t="shared" si="20"/>
+        <v>3.0265000113967697E-2</v>
       </c>
       <c r="E126">
-        <f t="shared" ref="E126:E157" si="19">(B126-C126)^2</f>
-        <v>0.41561155660158805</v>
+        <f t="shared" ref="E126:E157" si="22">(B126-C126)^2</f>
+        <v>0.17116129400472105</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B127" s="76">
-        <v>-0.50579417269520377</v>
+      <c r="B127">
+        <v>-0.52992508486947543</v>
       </c>
       <c r="C127">
-        <f t="shared" si="16"/>
-        <v>0.34180308622511291</v>
+        <f t="shared" si="19"/>
+        <v>0.1739683882605334</v>
       </c>
       <c r="D127">
-        <f t="shared" si="17"/>
-        <v>0.25582774513242562</v>
+        <f t="shared" si="20"/>
+        <v>0.28082059557392075</v>
       </c>
       <c r="E127">
+        <f t="shared" si="22"/>
+        <v>0.49546602151502644</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>-1.2938029287680735</v>
+      </c>
+      <c r="C128">
         <f t="shared" si="19"/>
-        <v>0.71842111332923431</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B128" s="76">
-        <v>-1.9413166291493411</v>
-      </c>
-      <c r="C128">
-        <f t="shared" si="16"/>
-        <v>-0.50579417269520377</v>
+        <v>-0.52992508486947543</v>
       </c>
       <c r="D128">
-        <f t="shared" si="17"/>
-        <v>3.7687102546117606</v>
+        <f t="shared" si="20"/>
+        <v>1.6739260184888445</v>
       </c>
       <c r="E128">
+        <f t="shared" si="22"/>
+        <v>0.5835093603991709</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>5.4270369585712928</v>
+      </c>
+      <c r="C129">
         <f t="shared" si="19"/>
-        <v>2.0607247229841206</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B129" s="76">
-        <v>5.2128745218894039</v>
-      </c>
-      <c r="C129">
-        <f t="shared" si="16"/>
-        <v>-1.9413166291493411</v>
+        <v>-1.2938029287680735</v>
       </c>
       <c r="D129">
-        <f t="shared" si="17"/>
-        <v>27.174060780963682</v>
+        <f t="shared" si="20"/>
+        <v>29.452730149698748</v>
       </c>
       <c r="E129">
+        <f t="shared" si="22"/>
+        <v>45.169688791251822</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>0.71360767977587614</v>
+      </c>
+      <c r="C130">
         <f t="shared" si="19"/>
-        <v>51.182451025601083</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B130" s="76">
-        <v>0.18360040385445586</v>
-      </c>
-      <c r="C130">
-        <f t="shared" si="16"/>
-        <v>5.2128745218894039</v>
+        <v>5.4270369585712928</v>
       </c>
       <c r="D130">
-        <f t="shared" si="17"/>
-        <v>3.3709108295519291E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.50923592063510936</v>
       </c>
       <c r="E130">
+        <f t="shared" si="22"/>
+        <v>22.216415566205882</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>0.77534953934465989</v>
+      </c>
+      <c r="C131">
         <f t="shared" si="19"/>
-        <v>25.293598154336205</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B131" s="76">
-        <v>0.92336239408467691</v>
-      </c>
-      <c r="C131">
-        <f t="shared" si="16"/>
-        <v>0.18360040385445586</v>
+        <v>0.71360767977587614</v>
       </c>
       <c r="D131">
-        <f t="shared" si="17"/>
-        <v>0.8525981108097862</v>
+        <f t="shared" si="20"/>
+        <v>0.60116690816197627</v>
       </c>
       <c r="E131">
+        <f t="shared" si="22"/>
+        <v>3.8120572230114138E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>2.3390536688821868</v>
+      </c>
+      <c r="C132">
         <f t="shared" si="19"/>
-        <v>0.54724780218937763</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B132" s="76">
-        <v>2.5984175734175636</v>
-      </c>
-      <c r="C132">
-        <f t="shared" si="16"/>
-        <v>0.92336239408467691</v>
+        <v>0.77534953934465989</v>
       </c>
       <c r="D132">
-        <f t="shared" si="17"/>
-        <v>6.7517738858452194</v>
+        <f t="shared" si="20"/>
+        <v>5.4711720659112189</v>
       </c>
       <c r="E132">
+        <f t="shared" si="22"/>
+        <v>2.4451706047327146</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>-0.51811613239523524</v>
+      </c>
+      <c r="C133">
         <f t="shared" si="19"/>
-        <v>2.8058098538099294</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B133" s="76">
-        <v>-0.34191049049496769</v>
-      </c>
-      <c r="C133">
-        <f t="shared" si="16"/>
-        <v>2.5984175734175636</v>
+        <v>2.3390536688821868</v>
       </c>
       <c r="D133">
-        <f t="shared" si="17"/>
-        <v>0.11690278351050939</v>
+        <f t="shared" si="20"/>
+        <v>0.26844432664819695</v>
       </c>
       <c r="E133">
+        <f t="shared" si="22"/>
+        <v>8.1634192733316642</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>-8.7759156058936583E-2</v>
+      </c>
+      <c r="C134">
         <f t="shared" si="19"/>
-        <v>8.6455291234316149</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B134" s="76">
-        <v>-0.1396421428440533</v>
-      </c>
-      <c r="C134">
-        <f t="shared" si="16"/>
-        <v>-0.34191049049496769</v>
+        <v>-0.51811613239523524</v>
       </c>
       <c r="D134">
-        <f t="shared" si="17"/>
-        <v>1.9499928058078986E-2</v>
+        <f t="shared" si="20"/>
+        <v>7.7016694721767859E-3</v>
       </c>
       <c r="E134">
+        <f t="shared" si="22"/>
+        <v>0.18520712708132153</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>-0.34664915495076798</v>
+      </c>
+      <c r="C135">
         <f t="shared" si="19"/>
-        <v>4.0912484461431163E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B135" s="76">
-        <v>-0.48655102292160279</v>
-      </c>
-      <c r="C135">
-        <f t="shared" si="16"/>
-        <v>-0.1396421428440533</v>
+        <v>-8.7759156058936583E-2</v>
       </c>
       <c r="D135">
-        <f t="shared" si="17"/>
-        <v>0.23673189790605806</v>
+        <f t="shared" si="20"/>
+        <v>0.12016563662808155</v>
       </c>
       <c r="E135">
+        <f t="shared" si="22"/>
+        <v>6.702403152621246E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>0.1260862600445023</v>
+      </c>
+      <c r="C136">
         <f t="shared" si="19"/>
-        <v>0.12034577107665961</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B136" s="76">
-        <v>4.9177948293518625E-2</v>
-      </c>
-      <c r="C136">
-        <f t="shared" si="16"/>
-        <v>-0.48655102292160279</v>
+        <v>-0.34664915495076798</v>
       </c>
       <c r="D136">
-        <f t="shared" si="17"/>
-        <v>2.4184705983599916E-3</v>
+        <f t="shared" si="20"/>
+        <v>1.5897744972009856E-2</v>
       </c>
       <c r="E136">
+        <f t="shared" si="22"/>
+        <v>0.22347877259075041</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>-0.19936956388205829</v>
+      </c>
+      <c r="C137">
         <f t="shared" si="19"/>
-        <v>0.28700553059921241</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B137" s="76">
-        <v>-9.446897708798474E-3</v>
-      </c>
-      <c r="C137">
-        <f t="shared" si="16"/>
-        <v>4.9177948293518625E-2</v>
+        <v>0.1260862600445023</v>
       </c>
       <c r="D137">
-        <f t="shared" si="17"/>
-        <v>8.9243876320501853E-5</v>
+        <f t="shared" si="20"/>
+        <v>3.9748223002522121E-2</v>
       </c>
       <c r="E137">
+        <f t="shared" si="22"/>
+        <v>0.1059214933277164</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>1.0913149328211915</v>
+      </c>
+      <c r="C138">
         <f t="shared" si="19"/>
-        <v>3.436872568795395E-3</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B138" s="76">
-        <v>1.0982419927013041</v>
-      </c>
-      <c r="C138">
-        <f t="shared" si="16"/>
-        <v>-9.446897708798474E-3</v>
+        <v>-0.19936956388205829</v>
       </c>
       <c r="D138">
-        <f t="shared" si="17"/>
-        <v>1.2061354745325312</v>
+        <f t="shared" si="20"/>
+        <v>1.1909682825985217</v>
       </c>
       <c r="E138">
+        <f t="shared" si="22"/>
+        <v>1.6658664700301213</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>0.80820804072705243</v>
+      </c>
+      <c r="C139">
         <f t="shared" si="19"/>
-        <v>1.2269746779379642</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B139" s="76">
-        <v>0.69564634769400868</v>
-      </c>
-      <c r="C139">
-        <f t="shared" si="16"/>
-        <v>1.0982419927013041</v>
+        <v>1.0913149328211915</v>
       </c>
       <c r="D139">
-        <f t="shared" si="17"/>
-        <v>0.48392384106001363</v>
+        <f t="shared" si="20"/>
+        <v>0.65320023709586084</v>
       </c>
       <c r="E139">
+        <f t="shared" si="22"/>
+        <v>8.0149512351202518E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>1.0682816497907197</v>
+      </c>
+      <c r="C140">
         <f t="shared" si="19"/>
-        <v>0.16208325337884022</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B140" s="76">
-        <v>1.1946411508126715</v>
-      </c>
-      <c r="C140">
-        <f t="shared" si="16"/>
-        <v>0.69564634769400868</v>
+        <v>0.80820804072705243</v>
       </c>
       <c r="D140">
-        <f t="shared" si="17"/>
-        <v>1.4271674792150242</v>
+        <f t="shared" si="20"/>
+        <v>1.141225683279582</v>
       </c>
       <c r="E140">
+        <f t="shared" si="22"/>
+        <v>6.7638282131401231E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>1.0760255758797541</v>
+      </c>
+      <c r="C141">
         <f t="shared" si="19"/>
-        <v>0.24899581353943309</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B141" s="76">
-        <v>0.89667759296365546</v>
-      </c>
-      <c r="C141">
-        <f t="shared" si="16"/>
-        <v>1.1946411508126715</v>
+        <v>1.0682816497907197</v>
       </c>
       <c r="D141">
-        <f t="shared" si="17"/>
-        <v>0.80403070572309498</v>
+        <f t="shared" si="20"/>
+        <v>1.1578310399473566</v>
       </c>
       <c r="E141">
+        <f t="shared" si="22"/>
+        <v>5.9968391272427665E-5</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>-0.98784462868086109</v>
+      </c>
+      <c r="C142">
         <f t="shared" si="19"/>
-        <v>8.8782281806043944E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B142" s="76">
-        <v>-1.1818057862464428</v>
-      </c>
-      <c r="C142">
-        <f t="shared" si="16"/>
-        <v>0.89667759296365546</v>
+        <v>1.0760255758797541</v>
       </c>
       <c r="D142">
-        <f t="shared" si="17"/>
-        <v>1.3966649164055729</v>
+        <f t="shared" si="20"/>
+        <v>0.97583701041362836</v>
       </c>
       <c r="E142">
+        <f t="shared" si="22"/>
+        <v>4.2595602212730759</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>1.7096098007713039</v>
+      </c>
+      <c r="C143">
         <f t="shared" si="19"/>
-        <v>4.3200931576526296</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B143" s="76">
-        <v>1.8394193000905972</v>
-      </c>
-      <c r="C143">
-        <f t="shared" si="16"/>
-        <v>-1.1818057862464428</v>
+        <v>-0.98784462868086109</v>
       </c>
       <c r="D143">
-        <f t="shared" si="17"/>
-        <v>3.3834633615457825</v>
+        <f t="shared" si="20"/>
+        <v>2.9227656708932974</v>
       </c>
       <c r="E143">
+        <f t="shared" si="22"/>
+        <v>7.2762603989711048</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>-0.34470063253272087</v>
+      </c>
+      <c r="C144">
         <f t="shared" si="19"/>
-        <v>9.127801022312255</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B144" s="76">
-        <v>-0.24510968202436345</v>
-      </c>
-      <c r="C144">
-        <f t="shared" si="16"/>
-        <v>1.8394193000905972</v>
+        <v>1.7096098007713039</v>
       </c>
       <c r="D144">
-        <f t="shared" si="17"/>
-        <v>6.0078756222084556E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.11881852606845787</v>
       </c>
       <c r="E144">
+        <f t="shared" si="22"/>
+        <v>4.2201913563817701</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>-1.8426904513413689</v>
+      </c>
+      <c r="C145">
         <f t="shared" si="19"/>
-        <v>4.3452610772772342</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B145" s="76">
-        <v>-1.7378036559735932</v>
-      </c>
-      <c r="C145">
-        <f t="shared" si="16"/>
-        <v>-0.24510968202436345</v>
+        <v>-0.34470063253272087</v>
       </c>
       <c r="D145">
-        <f t="shared" si="17"/>
-        <v>3.0199615467151868</v>
+        <f t="shared" si="20"/>
+        <v>3.3955080994646578</v>
       </c>
       <c r="E145">
+        <f t="shared" si="22"/>
+        <v>2.2439734972543661</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>-2.4188505694240803E-2</v>
+      </c>
+      <c r="C146">
         <f t="shared" si="19"/>
-        <v>2.228135299864344</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B146" s="76">
-        <v>-0.10639436191051743</v>
-      </c>
-      <c r="C146">
-        <f t="shared" si="16"/>
-        <v>-1.7378036559735932</v>
+        <v>-1.8426904513413689</v>
       </c>
       <c r="D146">
-        <f t="shared" si="17"/>
-        <v>1.1319760246346162E-2</v>
+        <f t="shared" si="20"/>
+        <v>5.8508380772031969E-4</v>
       </c>
       <c r="E146">
+        <f t="shared" si="22"/>
+        <v>3.3069493263223904</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>-1.3089927842197255</v>
+      </c>
+      <c r="C147">
         <f t="shared" si="19"/>
-        <v>2.6614962847553834</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B147" s="76">
-        <v>-1.4130111094982141</v>
-      </c>
-      <c r="C147">
-        <f t="shared" si="16"/>
-        <v>-0.10639436191051743</v>
+        <v>-2.4188505694240803E-2</v>
       </c>
       <c r="D147">
-        <f t="shared" si="17"/>
-        <v>1.9966003955653739</v>
+        <f t="shared" si="20"/>
+        <v>1.713462109139309</v>
       </c>
       <c r="E147">
+        <f t="shared" si="22"/>
+        <v>1.6507220341173914</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>0.97215108559683472</v>
+      </c>
+      <c r="C148">
         <f t="shared" si="19"/>
-        <v>1.7072473250766504</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B148" s="76">
-        <v>0.83056206075492867</v>
-      </c>
-      <c r="C148">
-        <f t="shared" si="16"/>
-        <v>-1.4130111094982141</v>
+        <v>-1.3089927842197255</v>
       </c>
       <c r="D148">
-        <f t="shared" si="17"/>
-        <v>0.68983333676547387</v>
+        <f t="shared" si="20"/>
+        <v>0.94507773322710431</v>
       </c>
       <c r="E148">
+        <f t="shared" si="22"/>
+        <v>5.203617354801672</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>-1.0521514183965763</v>
+      </c>
+      <c r="C149">
         <f t="shared" si="19"/>
-        <v>5.0336205702797372</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B149" s="76">
-        <v>-1.0702063652417877</v>
-      </c>
-      <c r="C149">
-        <f t="shared" si="16"/>
-        <v>0.83056206075492867</v>
+        <v>0.97215108559683472</v>
       </c>
       <c r="D149">
-        <f t="shared" si="17"/>
-        <v>1.1453416642040386</v>
+        <f t="shared" si="20"/>
+        <v>1.1070226072339273</v>
       </c>
       <c r="E149">
+        <f t="shared" si="22"/>
+        <v>4.097800627673994</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>-0.74478957248172151</v>
+      </c>
+      <c r="C150">
         <f t="shared" si="19"/>
-        <v>3.6129206092660344</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B150" s="76">
-        <v>-0.89825348747999101</v>
-      </c>
-      <c r="C150">
-        <f t="shared" si="16"/>
-        <v>-1.0702063652417877</v>
+        <v>-1.0521514183965763</v>
       </c>
       <c r="D150">
-        <f t="shared" si="17"/>
-        <v>0.80685932776996638</v>
+        <f t="shared" si="20"/>
+        <v>0.55471150727750551</v>
       </c>
       <c r="E150">
+        <f t="shared" si="22"/>
+        <v>9.4471304324186961E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>3.7951561000525658E-2</v>
+      </c>
+      <c r="C151">
         <f t="shared" si="19"/>
-        <v>2.9567792170563392E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B151" s="76">
-        <v>-1.4689321348498652E-2</v>
-      </c>
-      <c r="C151">
-        <f t="shared" si="16"/>
-        <v>-0.89825348747999101</v>
+        <v>-0.74478957248172151</v>
       </c>
       <c r="D151">
-        <f t="shared" si="17"/>
-        <v>2.1577616167945825E-4</v>
+        <f t="shared" si="20"/>
+        <v>1.4403209823766201E-3</v>
       </c>
       <c r="E151">
+        <f t="shared" si="22"/>
+        <v>0.61268368204507306</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>2.1141419480941153</v>
+      </c>
+      <c r="C152">
         <f t="shared" si="19"/>
-        <v>0.7806856356716394</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B152" s="76">
-        <v>2.0778803679481257</v>
-      </c>
-      <c r="C152">
-        <f t="shared" si="16"/>
-        <v>-1.4689321348498652E-2</v>
+        <v>3.7951561000525658E-2</v>
       </c>
       <c r="D152">
-        <f t="shared" si="17"/>
-        <v>4.3175868235042385</v>
+        <f t="shared" si="20"/>
+        <v>4.4695961766911809</v>
       </c>
       <c r="E152">
+        <f t="shared" si="22"/>
+        <v>4.3105665234598298</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>2.2452422652684447</v>
+      </c>
+      <c r="C153">
         <f t="shared" si="19"/>
-        <v>4.3788479045629707</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B153" s="76">
-        <v>2.3710967078240515</v>
-      </c>
-      <c r="C153">
-        <f t="shared" si="16"/>
-        <v>2.0778803679481257</v>
+        <v>2.1141419480941153</v>
       </c>
       <c r="D153">
-        <f t="shared" si="17"/>
-        <v>5.6220995978540556</v>
+        <f t="shared" si="20"/>
+        <v>5.0411128297477772</v>
       </c>
       <c r="E153">
+        <f t="shared" si="22"/>
+        <v>1.7187293163209785E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>3.2370987850271291</v>
+      </c>
+      <c r="C154">
         <f t="shared" si="19"/>
-        <v>8.5975821970234415E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B154" s="76">
-        <v>3.0971859260315426</v>
-      </c>
-      <c r="C154">
-        <f t="shared" si="16"/>
-        <v>2.3710967078240515</v>
+        <v>2.2452422652684447</v>
       </c>
       <c r="D154">
-        <f t="shared" si="17"/>
-        <v>9.5925606604078641</v>
+        <f t="shared" si="20"/>
+        <v>10.478808544024115</v>
       </c>
       <c r="E154">
+        <f t="shared" si="22"/>
+        <v>0.98377935578780951</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>1.4381546950326509</v>
+      </c>
+      <c r="C155">
         <f t="shared" si="19"/>
-        <v>0.52720555279716574</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B155" s="76">
-        <v>1.4085138396648915</v>
-      </c>
-      <c r="C155">
-        <f t="shared" si="16"/>
-        <v>3.0971859260315426</v>
+        <v>3.2370987850271291</v>
       </c>
       <c r="D155">
-        <f t="shared" si="17"/>
-        <v>1.9839112365275358</v>
+        <f t="shared" si="20"/>
+        <v>2.0682889268444571</v>
       </c>
       <c r="E155">
+        <f t="shared" si="22"/>
+        <v>3.2361998389260611</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>-0.41350898840788375</v>
+      </c>
+      <c r="C156">
         <f t="shared" si="19"/>
-        <v>2.8516134152738983</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B156" s="76">
-        <v>-0.44960223935895272</v>
-      </c>
-      <c r="C156">
-        <f t="shared" si="16"/>
-        <v>1.4085138396648915</v>
+        <v>1.4381546950326509</v>
       </c>
       <c r="D156">
-        <f t="shared" si="17"/>
-        <v>0.20214217363658502</v>
+        <f t="shared" si="20"/>
+        <v>0.17098968349411134</v>
       </c>
       <c r="E156">
+        <f t="shared" si="22"/>
+        <v>3.4286583965725685</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>-1.089203320825078</v>
+      </c>
+      <c r="C157">
         <f t="shared" si="19"/>
-        <v>3.452595363126945</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B157" s="76">
-        <v>-1.1639127357286014</v>
-      </c>
-      <c r="C157">
-        <f t="shared" si="16"/>
-        <v>-0.44960223935895272</v>
+        <v>-0.41350898840788375</v>
       </c>
       <c r="D157">
-        <f t="shared" si="17"/>
-        <v>1.3546928563912373</v>
+        <f t="shared" si="20"/>
+        <v>1.1863638740963778</v>
       </c>
       <c r="E157">
-        <f t="shared" si="19"/>
-        <v>0.51023948522385398</v>
+        <f t="shared" si="22"/>
+        <v>0.45656283086071781</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B158" s="76">
-        <v>-4.1277906411062304</v>
+      <c r="B158">
+        <v>-4.6045926429162449</v>
       </c>
       <c r="C158">
-        <f t="shared" ref="C158:C177" si="20">B157</f>
-        <v>-1.1639127357286014</v>
+        <f t="shared" ref="C158:C177" si="23">B157</f>
+        <v>-1.089203320825078</v>
       </c>
       <c r="D158">
-        <f t="shared" ref="D158:D177" si="21">B158^2</f>
-        <v>17.038655576804185</v>
+        <f t="shared" ref="D158:D177" si="24">B158^2</f>
+        <v>21.202273407198408</v>
       </c>
       <c r="E158">
-        <f t="shared" ref="E158:E177" si="22">(B158-C158)^2</f>
-        <v>8.7845722379856817</v>
+        <f t="shared" ref="E158:E177" si="25">(B158-C158)^2</f>
+        <v>12.357962085872595</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B159" s="76">
-        <v>-1.3859170632534443</v>
+      <c r="B159">
+        <v>-1.2923751121311966</v>
       </c>
       <c r="C159">
-        <f t="shared" si="20"/>
-        <v>-4.1277906411062304</v>
+        <f t="shared" si="23"/>
+        <v>-4.6045926429162449</v>
       </c>
       <c r="D159">
-        <f t="shared" si="21"/>
-        <v>1.9207661062170516</v>
+        <f t="shared" si="24"/>
+        <v>1.670233430456123</v>
       </c>
       <c r="E159">
-        <f t="shared" si="22"/>
-        <v>7.5178707169272379</v>
+        <f t="shared" si="25"/>
+        <v>10.970784971239803</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B160" s="76">
-        <v>-0.53761806674857837</v>
+      <c r="B160">
+        <v>-0.7097731079564511</v>
       </c>
       <c r="C160">
-        <f t="shared" si="20"/>
-        <v>-1.3859170632534443</v>
+        <f t="shared" si="23"/>
+        <v>-1.2923751121311966</v>
       </c>
       <c r="D160">
-        <f t="shared" si="21"/>
-        <v>0.28903318569447889</v>
+        <f t="shared" si="24"/>
+        <v>0.50377786477816</v>
       </c>
       <c r="E160">
-        <f t="shared" si="22"/>
-        <v>0.71961118747116259</v>
+        <f t="shared" si="25"/>
+        <v>0.33942509526843018</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B161" s="76">
-        <v>-1.2200291801578658</v>
+      <c r="B161">
+        <v>-1.194212905515684</v>
       </c>
       <c r="C161">
-        <f t="shared" si="20"/>
-        <v>-0.53761806674857837</v>
+        <f t="shared" si="23"/>
+        <v>-0.7097731079564511</v>
       </c>
       <c r="D161">
-        <f t="shared" si="21"/>
-        <v>1.488471200436674</v>
+        <f t="shared" si="24"/>
+        <v>1.4261444637002121</v>
       </c>
       <c r="E161">
-        <f t="shared" si="22"/>
-        <v>0.46568492770450332</v>
+        <f t="shared" si="25"/>
+        <v>0.23468191745923059</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B162" s="76">
-        <v>-1.4582286133629196</v>
+      <c r="B162">
+        <v>-1.4393098055888629</v>
       </c>
       <c r="C162">
-        <f t="shared" si="20"/>
-        <v>-1.2200291801578658</v>
+        <f t="shared" si="23"/>
+        <v>-1.194212905515684</v>
       </c>
       <c r="D162">
-        <f t="shared" si="21"/>
-        <v>2.1264306888303435</v>
+        <f t="shared" si="24"/>
+        <v>2.0716127164642502</v>
       </c>
       <c r="E162">
-        <f t="shared" si="22"/>
-        <v>5.6738969979208922E-2</v>
+        <f t="shared" si="25"/>
+        <v>6.0072490425481823E-2</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B163" s="76">
-        <v>-1.1902503855867081</v>
+      <c r="B163">
+        <v>-1.0303160337688979</v>
       </c>
       <c r="C163">
-        <f t="shared" si="20"/>
-        <v>-1.4582286133629196</v>
+        <f t="shared" si="23"/>
+        <v>-1.4393098055888629</v>
       </c>
       <c r="D163">
-        <f t="shared" si="21"/>
-        <v>1.4166959803893073</v>
+        <f t="shared" si="24"/>
+        <v>1.0615511294412727</v>
       </c>
       <c r="E163">
-        <f t="shared" si="22"/>
-        <v>7.1812330562079085E-2</v>
+        <f t="shared" si="25"/>
+        <v>0.1672759053875216</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B164" s="76">
-        <v>-0.60843772060776757</v>
+      <c r="B164">
+        <v>-0.96194154939060184</v>
       </c>
       <c r="C164">
-        <f t="shared" si="20"/>
-        <v>-1.1902503855867081</v>
+        <f t="shared" si="23"/>
+        <v>-1.0303160337688979</v>
       </c>
       <c r="D164">
-        <f t="shared" si="21"/>
-        <v>0.37019645985837585</v>
+        <f t="shared" si="24"/>
+        <v>0.92533154444399168</v>
       </c>
       <c r="E164">
-        <f t="shared" si="22"/>
-        <v>0.33850597712989694</v>
+        <f t="shared" si="25"/>
+        <v>4.6750701139978536E-3</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B165" s="76">
-        <v>-0.32418631911669138</v>
+      <c r="B165">
+        <v>-0.20620430669860923</v>
       </c>
       <c r="C165">
-        <f t="shared" si="20"/>
-        <v>-0.60843772060776757</v>
+        <f t="shared" si="23"/>
+        <v>-0.96194154939060184</v>
       </c>
       <c r="D165">
-        <f t="shared" si="21"/>
-        <v>0.10509676950242926</v>
+        <f t="shared" si="24"/>
+        <v>4.2520216101054102E-2</v>
       </c>
       <c r="E165">
-        <f t="shared" si="22"/>
-        <v>8.0798859249640989E-2</v>
+        <f t="shared" si="25"/>
+        <v>0.57113877999169571</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B166" s="76">
-        <v>1.8733738533035194</v>
+      <c r="B166">
+        <v>1.9069418015045869</v>
       </c>
       <c r="C166">
-        <f t="shared" si="20"/>
-        <v>-0.32418631911669138</v>
+        <f t="shared" si="23"/>
+        <v>-0.20620430669860923</v>
       </c>
       <c r="D166">
-        <f t="shared" si="21"/>
-        <v>3.5095295942412759</v>
+        <f t="shared" si="24"/>
+        <v>3.6364270343255596</v>
       </c>
       <c r="E166">
-        <f t="shared" si="22"/>
-        <v>4.8292707114075464</v>
+        <f t="shared" si="25"/>
+        <v>4.4653864746143137</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B167" s="76">
-        <v>-1.6281585532827307</v>
+      <c r="B167">
+        <v>-1.4558838631938187</v>
       </c>
       <c r="C167">
-        <f t="shared" si="20"/>
-        <v>1.8733738533035194</v>
+        <f t="shared" si="23"/>
+        <v>1.9069418015045869</v>
       </c>
       <c r="D167">
-        <f t="shared" si="21"/>
-        <v>2.6509002746277148</v>
+        <f t="shared" si="24"/>
+        <v>2.1195978231081578</v>
       </c>
       <c r="E167">
-        <f t="shared" si="22"/>
-        <v>12.260729194373695</v>
+        <f t="shared" si="25"/>
+        <v>11.308596451154273</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B168" s="76">
-        <v>-3.3096785243331084</v>
+      <c r="B168">
+        <v>-3.4042784048514818</v>
       </c>
       <c r="C168">
-        <f t="shared" si="20"/>
-        <v>-1.6281585532827307</v>
+        <f t="shared" si="23"/>
+        <v>-1.4558838631938187</v>
       </c>
       <c r="D168">
-        <f t="shared" si="21"/>
-        <v>10.953971934431783</v>
+        <f t="shared" si="24"/>
+        <v>11.589111457738149</v>
       </c>
       <c r="E168">
-        <f t="shared" si="22"/>
-        <v>2.827509413041263</v>
+        <f t="shared" si="25"/>
+        <v>3.7962412899613751</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B169" s="76">
-        <v>3.1153016008171903</v>
+      <c r="B169">
+        <v>2.8501309298479498</v>
       </c>
       <c r="C169">
-        <f t="shared" si="20"/>
-        <v>-3.3096785243331084</v>
+        <f t="shared" si="23"/>
+        <v>-3.4042784048514818</v>
       </c>
       <c r="D169">
-        <f t="shared" si="21"/>
-        <v>9.705104064054149</v>
+        <f t="shared" si="24"/>
+        <v>8.1232463172759388</v>
       </c>
       <c r="E169">
-        <f t="shared" si="22"/>
-        <v>41.280369608576351</v>
+        <f t="shared" si="25"/>
+        <v>39.117636125975388</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B170" s="76">
-        <v>1.1462136893981381</v>
+      <c r="B170">
+        <v>1.2047389932733381</v>
       </c>
       <c r="C170">
-        <f t="shared" si="20"/>
-        <v>3.1153016008171903</v>
+        <f t="shared" si="23"/>
+        <v>2.8501309298479498</v>
       </c>
       <c r="D170">
-        <f t="shared" si="21"/>
-        <v>1.3138058217636912</v>
+        <f t="shared" si="24"/>
+        <v>1.4513960419132561</v>
       </c>
       <c r="E170">
-        <f t="shared" si="22"/>
-        <v>3.8773072028966453</v>
+        <f t="shared" si="25"/>
+        <v>2.7073146249447508</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B171" s="76">
-        <v>-0.41091362669794762</v>
+      <c r="B171">
+        <v>6.4018346011351923E-3</v>
       </c>
       <c r="C171">
-        <f t="shared" si="20"/>
-        <v>1.1462136893981381</v>
+        <f t="shared" si="23"/>
+        <v>1.2047389932733381</v>
       </c>
       <c r="D171">
-        <f t="shared" si="21"/>
-        <v>0.16885000860606025</v>
+        <f t="shared" si="24"/>
+        <v>4.0983486260291788E-5</v>
       </c>
       <c r="E171">
-        <f t="shared" si="22"/>
-        <v>2.4246454785325993</v>
+        <f t="shared" si="25"/>
+        <v>1.4360119458545684</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B172" s="76">
-        <v>-1.0797839866736751</v>
+      <c r="B172">
+        <v>-0.86757489927870779</v>
       </c>
       <c r="C172">
-        <f t="shared" si="20"/>
-        <v>-0.41091362669794762</v>
+        <f t="shared" si="23"/>
+        <v>6.4018346011351923E-3</v>
       </c>
       <c r="D172">
-        <f t="shared" si="21"/>
-        <v>1.1659334578768954</v>
+        <f t="shared" si="24"/>
+        <v>0.75268620585845991</v>
       </c>
       <c r="E172">
-        <f t="shared" si="22"/>
-        <v>0.44738755845405931</v>
+        <f t="shared" si="25"/>
+        <v>0.76383533136327786</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B173" s="76">
-        <v>-1.6785967722924369</v>
+      <c r="B173">
+        <v>-1.7087346223454318</v>
       </c>
       <c r="C173">
-        <f t="shared" si="20"/>
-        <v>-1.0797839866736751</v>
+        <f t="shared" si="23"/>
+        <v>-0.86757489927870779</v>
       </c>
       <c r="D173">
-        <f t="shared" si="21"/>
-        <v>2.817687123950587</v>
+        <f t="shared" si="24"/>
+        <v>2.9197740096019857</v>
       </c>
       <c r="E173">
-        <f t="shared" si="22"/>
-        <v>0.35857675222050106</v>
+        <f t="shared" si="25"/>
+        <v>0.70754967970968785</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B174" s="76">
-        <v>0.76050582094376296</v>
+      <c r="B174">
+        <v>0.26857769847768509</v>
       </c>
       <c r="C174">
-        <f t="shared" si="20"/>
-        <v>-1.6785967722924369</v>
+        <f t="shared" si="23"/>
+        <v>-1.7087346223454318</v>
       </c>
       <c r="D174">
-        <f t="shared" si="21"/>
-        <v>0.5783691036893468</v>
+        <f t="shared" si="24"/>
+        <v>7.2133980119570326E-2</v>
       </c>
       <c r="E174">
-        <f t="shared" si="22"/>
-        <v>5.9492214603315547</v>
+        <f t="shared" si="25"/>
+        <v>3.9097640140789007</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B175" s="76">
-        <v>1.9141560608421884</v>
+      <c r="B175">
+        <v>1.5944123675826489</v>
       </c>
       <c r="C175">
-        <f t="shared" si="20"/>
-        <v>0.76050582094376296</v>
+        <f t="shared" si="23"/>
+        <v>0.26857769847768509</v>
       </c>
       <c r="D175">
-        <f t="shared" si="21"/>
-        <v>3.6639934252588837</v>
+        <f t="shared" si="24"/>
+        <v>2.5421507979005078</v>
       </c>
       <c r="E175">
-        <f t="shared" si="22"/>
-        <v>1.3309088760176946</v>
+        <f t="shared" si="25"/>
+        <v>1.757837569800669</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B176" s="76">
-        <v>-0.4933665458670049</v>
+      <c r="B176">
+        <v>-0.1772522297464576</v>
       </c>
       <c r="C176">
-        <f t="shared" si="20"/>
-        <v>1.9141560608421884</v>
+        <f t="shared" si="23"/>
+        <v>1.5944123675826489</v>
       </c>
       <c r="D176">
-        <f t="shared" si="21"/>
-        <v>0.24341054858073946</v>
+        <f t="shared" si="24"/>
+        <v>3.1418352950090989E-2</v>
       </c>
       <c r="E176">
-        <f t="shared" si="22"/>
-        <v>5.7961651018158289</v>
+        <f t="shared" si="25"/>
+        <v>3.138795445429305</v>
       </c>
     </row>
     <row r="177" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B177" s="77">
-        <v>-3.7617197731663197</v>
+      <c r="B177" s="47">
+        <v>-4.9475253812569662</v>
       </c>
       <c r="C177">
-        <f t="shared" si="20"/>
-        <v>-0.4933665458670049</v>
+        <f t="shared" si="23"/>
+        <v>-0.1772522297464576</v>
       </c>
       <c r="D177">
-        <f t="shared" si="21"/>
-        <v>14.150535651830468</v>
+        <f t="shared" si="24"/>
+        <v>24.478007398181887</v>
       </c>
       <c r="E177">
-        <f t="shared" si="22"/>
-        <v>10.682132818397847</v>
+        <f t="shared" si="25"/>
+        <v>22.755505940022001</v>
       </c>
     </row>
   </sheetData>
@@ -43105,8 +43111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B727BA6-2C93-411F-B29B-338BC42E7097}">
   <dimension ref="A1:BR92"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="63" workbookViewId="0">
-      <selection activeCell="M71" sqref="M13:M71"/>
+    <sheetView topLeftCell="AL40" zoomScale="63" workbookViewId="0">
+      <selection activeCell="BL72" sqref="BL72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51912,8 +51918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577B6A50-6951-4AE8-AE1A-6A64F095DDF7}">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51921,9 +51927,9 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -53655,8 +53661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554A7790-203F-40EF-AB6A-89757506FD38}">
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:F109"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55529,7 +55535,7 @@
   <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59355,8 +59361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B1F779-9A68-4460-BFAB-4379DBF64F01}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61315,8 +61321,8 @@
   </sheetPr>
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -63273,7 +63279,7 @@
   <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
